--- a/create_forecast_basic/utils/monitoring_df_fixed_2.xlsx
+++ b/create_forecast_basic/utils/monitoring_df_fixed_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="1396">
   <si>
     <t>2020</t>
   </si>
@@ -2914,6 +2914,1287 @@
     <t>emp_okev at תלפיות מזרח in 2050</t>
   </si>
   <si>
+    <t>emp_okev at אבו גוש in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at אבו גוש in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at אבו גוש in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at אבו גוש in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at אבו גוש in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at אבו גוש in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at אבו גוש in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at אורנית in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at אורנית in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at אורנית in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at אורנית in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at אורנית in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at אורנית in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at אורנית in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at אלפי מנשה in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at אלפי מנשה in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at אלפי מנשה in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at אלפי מנשה in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at אלפי מנשה in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at אלפי מנשה in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at אלפי מנשה in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at אפרת in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at אפרת in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at אפרת in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at אפרת in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at אפרת in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at אפרת in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at אפרת in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at אריאל in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at אריאל in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at אריאל in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at אריאל in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at אריאל in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at אריאל in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at אריאל in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at בית אל in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at בית אל in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at בית אל in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at בית אל in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at בית אל in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at בית אל in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at בית אל in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at בית אריה-עופרים in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at בית אריה-עופרים in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at בית אריה-עופרים in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at בית אריה-עופרים in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at בית אריה-עופרים in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at בית אריה-עופרים in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at בית אריה-עופרים in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at בית שמש in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at בית שמש in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at בית שמש in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at בית שמש in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at בית שמש in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at בית שמש in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at בית שמש in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at ביתר עילית in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at ביתר עילית in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at ביתר עילית in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at ביתר עילית in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at ביתר עילית in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at ביתר עילית in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at ביתר עילית in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at גבעת זאב in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at גבעת זאב in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at גבעת זאב in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at גבעת זאב in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at גבעת זאב in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at גבעת זאב in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at גבעת זאב in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at גוש עציון in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at גוש עציון in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at גוש עציון in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at גוש עציון in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at גוש עציון in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at גוש עציון in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at גוש עציון in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at הר אדר in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at הר אדר in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at הר אדר in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at הר אדר in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at הר אדר in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at הר אדר in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at הר אדר in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at הר חברון_x000D_
+ in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at הר חברון_x000D_
+ in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at הר חברון_x000D_
+ in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at הר חברון_x000D_
+ in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at הר חברון_x000D_
+ in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at הר חברון_x000D_
+ in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at הר חברון_x000D_
+ in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at ירושלים in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at ירושלים in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at ירושלים in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at ירושלים in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at ירושלים in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at ירושלים in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at ירושלים in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at מבשרת ציון in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at מבשרת ציון in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at מבשרת ציון in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at מבשרת ציון in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at מבשרת ציון in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at מבשרת ציון in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at מבשרת ציון in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at מגילות ים המלח_x000D_
+ in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at מגילות ים המלח_x000D_
+ in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at מגילות ים המלח_x000D_
+ in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at מגילות ים המלח_x000D_
+ in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at מגילות ים המלח_x000D_
+ in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at מגילות ים המלח_x000D_
+ in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at מגילות ים המלח_x000D_
+ in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at מודיעין - מכבים - רעות in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at מודיעין - מכבים - רעות in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at מודיעין - מכבים - רעות in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at מודיעין - מכבים - רעות in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at מודיעין - מכבים - רעות in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at מודיעין - מכבים - רעות in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at מודיעין - מכבים - רעות in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at מודיעין עילית in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at מודיעין עילית in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at מודיעין עילית in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at מודיעין עילית in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at מודיעין עילית in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at מודיעין עילית in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at מודיעין עילית in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at מטה בנימין in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at מטה בנימין in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at מטה בנימין in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at מטה בנימין in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at מטה בנימין in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at מטה בנימין in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at מטה בנימין in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at מטה יהודה in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at מטה יהודה in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at מטה יהודה in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at מטה יהודה in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at מטה יהודה in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at מטה יהודה in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at מטה יהודה in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at מעלה אדומים in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at מעלה אדומים in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at מעלה אדומים in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at מעלה אדומים in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at מעלה אדומים in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at מעלה אדומים in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at מעלה אדומים in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at מעלה אפרים in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at מעלה אפרים in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at מעלה אפרים in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at מעלה אפרים in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at מעלה אפרים in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at מעלה אפרים in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at מעלה אפרים in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at עמנואל in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at עמנואל in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at עמנואל in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at עמנואל in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at עמנואל in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at עמנואל in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at עמנואל in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at ערבות הירדן_x000D_
+ in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at ערבות הירדן_x000D_
+ in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at ערבות הירדן_x000D_
+ in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at ערבות הירדן_x000D_
+ in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at ערבות הירדן_x000D_
+ in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at ערבות הירדן_x000D_
+ in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at ערבות הירדן_x000D_
+ in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at קדומים in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at קדומים in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at קדומים in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at קדומים in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at קדומים in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at קדומים in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at קדומים in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at קריית ארבע in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at קריית ארבע in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at קריית ארבע in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at קריית ארבע in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at קריית ארבע in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at קריית ארבע in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at קריית ארבע in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at קרית יערים in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at קרית יערים in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at קרית יערים in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at קרית יערים in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at קרית יערים in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at קרית יערים in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at קרית יערים in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at קרני שומרון in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at קרני שומרון in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at קרני שומרון in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at קרני שומרון in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at קרני שומרון in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at קרני שומרון in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at קרני שומרון in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at שומרון in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at שומרון in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at שומרון in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at שומרון in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at שומרון in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at שומרון in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at שומרון in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at 0 in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at 0 in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at 0 in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at 0 in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at 0 in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at 0 in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at 0 in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at אבו גוש in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at אבו גוש in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at אבו גוש in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at אבו גוש in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at אבו גוש in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at אבו גוש in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at אבו גוש in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at אורנית in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at אורנית in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at אורנית in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at אורנית in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at אורנית in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at אורנית in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at אורנית in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at אלפי מנשה in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at אלפי מנשה in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at אלפי מנשה in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at אלפי מנשה in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at אלפי מנשה in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at אלפי מנשה in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at אלפי מנשה in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at אפרת in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at אפרת in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at אפרת in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at אפרת in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at אפרת in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at אפרת in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at אפרת in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at אריאל in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at אריאל in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at אריאל in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at אריאל in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at אריאל in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at אריאל in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at אריאל in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at בית אל in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at בית אל in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at בית אל in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at בית אל in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at בית אל in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at בית אל in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at בית אל in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at בית אריה-עופרים in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at בית אריה-עופרים in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at בית אריה-עופרים in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at בית אריה-עופרים in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at בית אריה-עופרים in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at בית אריה-עופרים in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at בית אריה-עופרים in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at בית שמש in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at בית שמש in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at בית שמש in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at בית שמש in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at בית שמש in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at בית שמש in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at בית שמש in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at ביתר עילית in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at ביתר עילית in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at ביתר עילית in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at ביתר עילית in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at ביתר עילית in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at ביתר עילית in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at ביתר עילית in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at גבעת זאב in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at גבעת זאב in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at גבעת זאב in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at גבעת זאב in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at גבעת זאב in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at גבעת זאב in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at גבעת זאב in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at גוש עציון in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at גוש עציון in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at גוש עציון in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at גוש עציון in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at גוש עציון in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at גוש עציון in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at גוש עציון in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at הר אדר in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at הר אדר in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at הר אדר in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at הר אדר in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at הר אדר in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at הר אדר in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at הר אדר in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at הר חברון_x000D_
+ in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at הר חברון_x000D_
+ in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at הר חברון_x000D_
+ in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at הר חברון_x000D_
+ in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at הר חברון_x000D_
+ in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at הר חברון_x000D_
+ in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at הר חברון_x000D_
+ in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at ירושלים in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at ירושלים in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at ירושלים in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at ירושלים in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at ירושלים in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at ירושלים in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at ירושלים in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at מבשרת ציון in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at מבשרת ציון in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at מבשרת ציון in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at מבשרת ציון in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at מבשרת ציון in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at מבשרת ציון in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at מבשרת ציון in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at מגילות ים המלח_x000D_
+ in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at מגילות ים המלח_x000D_
+ in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at מגילות ים המלח_x000D_
+ in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at מגילות ים המלח_x000D_
+ in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at מגילות ים המלח_x000D_
+ in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at מגילות ים המלח_x000D_
+ in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at מגילות ים המלח_x000D_
+ in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at מודיעין - מכבים - רעות in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at מודיעין - מכבים - רעות in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at מודיעין - מכבים - רעות in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at מודיעין - מכבים - רעות in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at מודיעין - מכבים - רעות in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at מודיעין - מכבים - רעות in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at מודיעין - מכבים - רעות in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at מודיעין עילית in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at מודיעין עילית in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at מודיעין עילית in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at מודיעין עילית in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at מודיעין עילית in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at מודיעין עילית in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at מודיעין עילית in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at מטה בנימין in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at מטה בנימין in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at מטה בנימין in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at מטה בנימין in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at מטה בנימין in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at מטה בנימין in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at מטה בנימין in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at מטה יהודה in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at מטה יהודה in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at מטה יהודה in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at מטה יהודה in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at מטה יהודה in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at מטה יהודה in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at מטה יהודה in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at מעלה אדומים in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at מעלה אדומים in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at מעלה אדומים in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at מעלה אדומים in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at מעלה אדומים in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at מעלה אדומים in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at מעלה אדומים in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at מעלה אפרים in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at מעלה אפרים in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at מעלה אפרים in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at מעלה אפרים in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at מעלה אפרים in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at מעלה אפרים in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at מעלה אפרים in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at עמנואל in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at עמנואל in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at עמנואל in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at עמנואל in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at עמנואל in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at עמנואל in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at עמנואל in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at ערבות הירדן_x000D_
+ in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at ערבות הירדן_x000D_
+ in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at ערבות הירדן_x000D_
+ in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at ערבות הירדן_x000D_
+ in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at ערבות הירדן_x000D_
+ in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at ערבות הירדן_x000D_
+ in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at ערבות הירדן_x000D_
+ in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at קדומים in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at קדומים in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at קדומים in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at קדומים in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at קדומים in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at קדומים in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at קדומים in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at קריית ארבע in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at קריית ארבע in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at קריית ארבע in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at קריית ארבע in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at קריית ארבע in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at קריית ארבע in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at קריית ארבע in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at קרית יערים in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at קרית יערים in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at קרית יערים in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at קרית יערים in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at קרית יערים in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at קרית יערים in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at קרית יערים in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at קרני שומרון in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at קרני שומרון in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at קרני שומרון in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at קרני שומרון in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at קרני שומרון in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at קרני שומרון in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at קרני שומרון in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at שומרון in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at שומרון in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at שומרון in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at שומרון in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at שומרון in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at שומרון in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at שומרון in 2050</t>
+  </si>
+  <si>
     <t>1,758,461</t>
   </si>
   <si>
@@ -2939,9 +4220,6 @@
   </si>
   <si>
     <t>298,512</t>
-  </si>
-  <si>
-    <t>inf</t>
   </si>
   <si>
     <t>7,278,700</t>
@@ -3323,7 +4601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E963"/>
+  <dimension ref="A1:E1376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3348,16 +4626,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>966</v>
+        <v>1379</v>
       </c>
       <c r="C2" t="s">
-        <v>966</v>
+        <v>1379</v>
       </c>
       <c r="D2" t="s">
-        <v>966</v>
+        <v>1379</v>
       </c>
       <c r="E2" t="s">
-        <v>966</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3365,13 +4643,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>971</v>
+        <v>1384</v>
       </c>
       <c r="D3" t="s">
-        <v>976</v>
+        <v>1388</v>
       </c>
       <c r="E3" t="s">
-        <v>980</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3379,16 +4657,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>967</v>
+        <v>1380</v>
       </c>
       <c r="C4" t="s">
-        <v>967</v>
+        <v>1380</v>
       </c>
       <c r="D4" t="s">
-        <v>967</v>
+        <v>1380</v>
       </c>
       <c r="E4" t="s">
-        <v>967</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3396,13 +4674,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>972</v>
+        <v>1385</v>
       </c>
       <c r="D5" t="s">
-        <v>977</v>
+        <v>1389</v>
       </c>
       <c r="E5" t="s">
-        <v>981</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3495,16 +4773,16 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>968</v>
+        <v>1381</v>
       </c>
       <c r="C11" t="s">
-        <v>968</v>
+        <v>1381</v>
       </c>
       <c r="D11" t="s">
-        <v>968</v>
+        <v>1381</v>
       </c>
       <c r="E11" t="s">
-        <v>968</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3512,13 +4790,13 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>968</v>
+        <v>1381</v>
       </c>
       <c r="D12" t="s">
-        <v>968</v>
+        <v>1381</v>
       </c>
       <c r="E12" t="s">
-        <v>968</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3526,16 +4804,16 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>969</v>
+        <v>1382</v>
       </c>
       <c r="C13" t="s">
-        <v>969</v>
+        <v>1382</v>
       </c>
       <c r="D13" t="s">
-        <v>969</v>
+        <v>1382</v>
       </c>
       <c r="E13" t="s">
-        <v>969</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3543,13 +4821,13 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>973</v>
+        <v>1386</v>
       </c>
       <c r="D14" t="s">
-        <v>978</v>
+        <v>1390</v>
       </c>
       <c r="E14" t="s">
-        <v>982</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3557,16 +4835,16 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>970</v>
+        <v>1383</v>
       </c>
       <c r="C15" t="s">
-        <v>970</v>
+        <v>1383</v>
       </c>
       <c r="D15" t="s">
-        <v>970</v>
+        <v>1383</v>
       </c>
       <c r="E15" t="s">
-        <v>970</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3574,13 +4852,13 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>974</v>
+        <v>1387</v>
       </c>
       <c r="D16" t="s">
-        <v>979</v>
+        <v>1391</v>
       </c>
       <c r="E16" t="s">
-        <v>983</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5448,11 +6726,11 @@
       <c r="A148" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C148" t="s">
-        <v>975</v>
-      </c>
-      <c r="D148" t="s">
-        <v>975</v>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
       </c>
       <c r="E148">
         <v>129.4654903995849</v>
@@ -7338,14 +8616,14 @@
       <c r="A283" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C283" t="s">
-        <v>975</v>
-      </c>
-      <c r="D283" t="s">
-        <v>975</v>
-      </c>
-      <c r="E283" t="s">
-        <v>975</v>
+      <c r="C283">
+        <v>0</v>
+      </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7425,11 +8703,11 @@
       <c r="C289">
         <v>0.8743169398907104</v>
       </c>
-      <c r="D289" t="s">
-        <v>975</v>
-      </c>
-      <c r="E289" t="s">
-        <v>975</v>
+      <c r="D289">
+        <v>0</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -7467,11 +8745,11 @@
       <c r="C292">
         <v>0.8686210640608035</v>
       </c>
-      <c r="D292" t="s">
-        <v>975</v>
-      </c>
-      <c r="E292" t="s">
-        <v>975</v>
+      <c r="D292">
+        <v>0</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -7554,8 +8832,8 @@
       <c r="D298">
         <v>1.326086956521744</v>
       </c>
-      <c r="E298" t="s">
-        <v>975</v>
+      <c r="E298">
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -11385,13 +12663,13 @@
         <v>574</v>
       </c>
       <c r="C572">
-        <v>73255.76075464822</v>
+        <v>2077.53</v>
       </c>
       <c r="D572">
-        <v>73255.76075464822</v>
+        <v>2077.53</v>
       </c>
       <c r="E572">
-        <v>73255.76075464822</v>
+        <v>2077.53</v>
       </c>
     </row>
     <row r="573" spans="1:5">
@@ -11399,13 +12677,13 @@
         <v>575</v>
       </c>
       <c r="C573">
-        <v>81504.63009969951</v>
+        <v>2204.93</v>
       </c>
       <c r="D573">
-        <v>78542.52811515545</v>
+        <v>2113.810868910457</v>
       </c>
       <c r="E573">
-        <v>79816.23732916736</v>
+        <v>2181.174015311838</v>
       </c>
     </row>
     <row r="574" spans="1:5">
@@ -11413,13 +12691,13 @@
         <v>576</v>
       </c>
       <c r="C574">
-        <v>92511.0825888566</v>
+        <v>2309.58</v>
       </c>
       <c r="D574">
-        <v>86028.44160616255</v>
+        <v>2120.309148846268</v>
       </c>
       <c r="E574">
-        <v>89421.30961412688</v>
+        <v>2262.985656031982</v>
       </c>
     </row>
     <row r="575" spans="1:5">
@@ -11427,13 +12705,13 @@
         <v>577</v>
       </c>
       <c r="C575">
-        <v>103122.2888339341</v>
+        <v>2400.58</v>
       </c>
       <c r="D575">
-        <v>93595.2949770533</v>
+        <v>2152.461604585944</v>
       </c>
       <c r="E575">
-        <v>99529.82020775802</v>
+        <v>2352.658589854606</v>
       </c>
     </row>
     <row r="576" spans="1:5">
@@ -11441,13 +12719,13 @@
         <v>578</v>
       </c>
       <c r="C576">
-        <v>111440.6888850915</v>
+        <v>2562.105</v>
       </c>
       <c r="D576">
-        <v>96946.26389316574</v>
+        <v>2247.155333778505</v>
       </c>
       <c r="E576">
-        <v>105611.0397633965</v>
+        <v>2467.993259760862</v>
       </c>
     </row>
     <row r="577" spans="1:5">
@@ -11455,13 +12733,13 @@
         <v>579</v>
       </c>
       <c r="C577">
-        <v>119274.6894817425</v>
+        <v>2641.73</v>
       </c>
       <c r="D577">
-        <v>104568.0196568163</v>
+        <v>2454.808986806963</v>
       </c>
       <c r="E577">
-        <v>115829.3413400636</v>
+        <v>2672.303978951742</v>
       </c>
     </row>
     <row r="578" spans="1:5">
@@ -11469,13 +12747,13 @@
         <v>580</v>
       </c>
       <c r="C578">
-        <v>127110.9353220066</v>
+        <v>2721.355</v>
       </c>
       <c r="D578">
-        <v>110099.8074150336</v>
+        <v>2523.54612588418</v>
       </c>
       <c r="E578">
-        <v>124624.443177918</v>
+        <v>2739.065134919956</v>
       </c>
     </row>
     <row r="579" spans="1:5">
@@ -16866,6 +18144,5788 @@
       </c>
       <c r="E963">
         <v>3948.276695050143</v>
+      </c>
+    </row>
+    <row r="964" spans="1:5">
+      <c r="A964" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="C964">
+        <v>963.32807053582</v>
+      </c>
+      <c r="D964">
+        <v>963.32807053582</v>
+      </c>
+      <c r="E964">
+        <v>963.32807053582</v>
+      </c>
+    </row>
+    <row r="965" spans="1:5">
+      <c r="A965" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="C965">
+        <v>1042.51875</v>
+      </c>
+      <c r="D965">
+        <v>1036.874615943339</v>
+      </c>
+      <c r="E965">
+        <v>1041.793295332048</v>
+      </c>
+    </row>
+    <row r="966" spans="1:5">
+      <c r="A966" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C966">
+        <v>1120.9198</v>
+      </c>
+      <c r="D966">
+        <v>1084.787995494406</v>
+      </c>
+      <c r="E966">
+        <v>1102.609611652929</v>
+      </c>
+    </row>
+    <row r="967" spans="1:5">
+      <c r="A967" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C967">
+        <v>1196.88205</v>
+      </c>
+      <c r="D967">
+        <v>1133.885508380835</v>
+      </c>
+      <c r="E967">
+        <v>1165.335601585355</v>
+      </c>
+    </row>
+    <row r="968" spans="1:5">
+      <c r="A968" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="C968">
+        <v>1278.91855</v>
+      </c>
+      <c r="D968">
+        <v>1178.961289725837</v>
+      </c>
+      <c r="E968">
+        <v>1233.051406228814</v>
+      </c>
+    </row>
+    <row r="969" spans="1:5">
+      <c r="A969" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C969">
+        <v>1356.446</v>
+      </c>
+      <c r="D969">
+        <v>1243.525740032619</v>
+      </c>
+      <c r="E969">
+        <v>1323.221918833497</v>
+      </c>
+    </row>
+    <row r="970" spans="1:5">
+      <c r="A970" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="C970">
+        <v>1439.4016</v>
+      </c>
+      <c r="D970">
+        <v>1385.450771308724</v>
+      </c>
+      <c r="E970">
+        <v>1496.820797929926</v>
+      </c>
+    </row>
+    <row r="971" spans="1:5">
+      <c r="A971" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="C971">
+        <v>975.0650000000001</v>
+      </c>
+      <c r="D971">
+        <v>975.0650000000001</v>
+      </c>
+      <c r="E971">
+        <v>975.0650000000001</v>
+      </c>
+    </row>
+    <row r="972" spans="1:5">
+      <c r="A972" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="C972">
+        <v>1045.135</v>
+      </c>
+      <c r="D972">
+        <v>1006.086691333944</v>
+      </c>
+      <c r="E972">
+        <v>1028.803946306224</v>
+      </c>
+    </row>
+    <row r="973" spans="1:5">
+      <c r="A973" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="C973">
+        <v>1086.756125</v>
+      </c>
+      <c r="D973">
+        <v>998.9398043801081</v>
+      </c>
+      <c r="E973">
+        <v>1055.902323684038</v>
+      </c>
+    </row>
+    <row r="974" spans="1:5">
+      <c r="A974" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="C974">
+        <v>1139.047</v>
+      </c>
+      <c r="D974">
+        <v>1025.770319347856</v>
+      </c>
+      <c r="E974">
+        <v>1110.681429425499</v>
+      </c>
+    </row>
+    <row r="975" spans="1:5">
+      <c r="A975" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="C975">
+        <v>1302.00525</v>
+      </c>
+      <c r="D975">
+        <v>1119.918536017112</v>
+      </c>
+      <c r="E975">
+        <v>1239.012809447323</v>
+      </c>
+    </row>
+    <row r="976" spans="1:5">
+      <c r="A976" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C976">
+        <v>1378.48165</v>
+      </c>
+      <c r="D976">
+        <v>1278.186872008157</v>
+      </c>
+      <c r="E976">
+        <v>1393.393365468236</v>
+      </c>
+    </row>
+    <row r="977" spans="1:5">
+      <c r="A977" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C977">
+        <v>1465.42305</v>
+      </c>
+      <c r="D977">
+        <v>1343.037635161194</v>
+      </c>
+      <c r="E977">
+        <v>1463.175897072033</v>
+      </c>
+    </row>
+    <row r="978" spans="1:5">
+      <c r="A978" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C978">
+        <v>975.0650000000001</v>
+      </c>
+      <c r="D978">
+        <v>975.0650000000001</v>
+      </c>
+      <c r="E978">
+        <v>975.0650000000001</v>
+      </c>
+    </row>
+    <row r="979" spans="1:5">
+      <c r="A979" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C979">
+        <v>1258.280347136995</v>
+      </c>
+      <c r="D979">
+        <v>1213.725160991341</v>
+      </c>
+      <c r="E979">
+        <v>1238.202101711272</v>
+      </c>
+    </row>
+    <row r="980" spans="1:5">
+      <c r="A980" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C980">
+        <v>1561.27419967428</v>
+      </c>
+      <c r="D980">
+        <v>1439.518885894797</v>
+      </c>
+      <c r="E980">
+        <v>1515.225086462136</v>
+      </c>
+    </row>
+    <row r="981" spans="1:5">
+      <c r="A981" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C981">
+        <v>1697.77419967428</v>
+      </c>
+      <c r="D981">
+        <v>1535.028214533524</v>
+      </c>
+      <c r="E981">
+        <v>1648.67683513188</v>
+      </c>
+    </row>
+    <row r="982" spans="1:5">
+      <c r="A982" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C982">
+        <v>1834.27419967428</v>
+      </c>
+      <c r="D982">
+        <v>1651.945417958191</v>
+      </c>
+      <c r="E982">
+        <v>1738.635323446999</v>
+      </c>
+    </row>
+    <row r="983" spans="1:5">
+      <c r="A983" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="C983">
+        <v>1840.224529444938</v>
+      </c>
+      <c r="D983">
+        <v>1795.043496762206</v>
+      </c>
+      <c r="E983">
+        <v>1810.196330389256</v>
+      </c>
+    </row>
+    <row r="984" spans="1:5">
+      <c r="A984" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="C984">
+        <v>1846.174859215596</v>
+      </c>
+      <c r="D984">
+        <v>1837.88639402688</v>
+      </c>
+      <c r="E984">
+        <v>1799.025488239829</v>
+      </c>
+    </row>
+    <row r="985" spans="1:5">
+      <c r="A985" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="C985">
+        <v>1187.55</v>
+      </c>
+      <c r="D985">
+        <v>1187.55</v>
+      </c>
+      <c r="E985">
+        <v>1187.55</v>
+      </c>
+    </row>
+    <row r="986" spans="1:5">
+      <c r="A986" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C986">
+        <v>1260.35</v>
+      </c>
+      <c r="D986">
+        <v>1207.804264609508</v>
+      </c>
+      <c r="E986">
+        <v>1240.656043216474</v>
+      </c>
+    </row>
+    <row r="987" spans="1:5">
+      <c r="A987" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C987">
+        <v>1296.75</v>
+      </c>
+      <c r="D987">
+        <v>1185.888855299095</v>
+      </c>
+      <c r="E987">
+        <v>1259.934318969011</v>
+      </c>
+    </row>
+    <row r="988" spans="1:5">
+      <c r="A988" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="C988">
+        <v>1419.6</v>
+      </c>
+      <c r="D988">
+        <v>1276.122292041829</v>
+      </c>
+      <c r="E988">
+        <v>1384.247846851305</v>
+      </c>
+    </row>
+    <row r="989" spans="1:5">
+      <c r="A989" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="C989">
+        <v>1519.7</v>
+      </c>
+      <c r="D989">
+        <v>1324.313770380444</v>
+      </c>
+      <c r="E989">
+        <v>1438.14217964881</v>
+      </c>
+    </row>
+    <row r="990" spans="1:5">
+      <c r="A990" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="C990">
+        <v>1758.575</v>
+      </c>
+      <c r="D990">
+        <v>1543.996057749192</v>
+      </c>
+      <c r="E990">
+        <v>1736.111288912869</v>
+      </c>
+    </row>
+    <row r="991" spans="1:5">
+      <c r="A991" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="C991">
+        <v>2088.45</v>
+      </c>
+      <c r="D991">
+        <v>1683.488449244823</v>
+      </c>
+      <c r="E991">
+        <v>2021.019901447112</v>
+      </c>
+    </row>
+    <row r="992" spans="1:5">
+      <c r="A992" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="C992">
+        <v>2511.145</v>
+      </c>
+      <c r="D992">
+        <v>2511.145</v>
+      </c>
+      <c r="E992">
+        <v>2511.145</v>
+      </c>
+    </row>
+    <row r="993" spans="1:5">
+      <c r="A993" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C993">
+        <v>2511.145</v>
+      </c>
+      <c r="D993">
+        <v>2450.6080547575</v>
+      </c>
+      <c r="E993">
+        <v>2505.153729945311</v>
+      </c>
+    </row>
+    <row r="994" spans="1:5">
+      <c r="A994" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C994">
+        <v>2703.72466</v>
+      </c>
+      <c r="D994">
+        <v>2502.524124497018</v>
+      </c>
+      <c r="E994">
+        <v>2662.148615755707</v>
+      </c>
+    </row>
+    <row r="995" spans="1:5">
+      <c r="A995" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="C995">
+        <v>3019.154320000001</v>
+      </c>
+      <c r="D995">
+        <v>2790.75722118767</v>
+      </c>
+      <c r="E995">
+        <v>3062.141656939146</v>
+      </c>
+    </row>
+    <row r="996" spans="1:5">
+      <c r="A996" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C996">
+        <v>3211.73398</v>
+      </c>
+      <c r="D996">
+        <v>3031.302586312181</v>
+      </c>
+      <c r="E996">
+        <v>3321.735129282973</v>
+      </c>
+    </row>
+    <row r="997" spans="1:5">
+      <c r="A997" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C997">
+        <v>3528.30114</v>
+      </c>
+      <c r="D997">
+        <v>3639.086370954284</v>
+      </c>
+      <c r="E997">
+        <v>3931.870992007455</v>
+      </c>
+    </row>
+    <row r="998" spans="1:5">
+      <c r="A998" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C998">
+        <v>3844.8683</v>
+      </c>
+      <c r="D998">
+        <v>4177.812182944821</v>
+      </c>
+      <c r="E998">
+        <v>4506.206685652802</v>
+      </c>
+    </row>
+    <row r="999" spans="1:5">
+      <c r="A999" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C999">
+        <v>537.8099999999999</v>
+      </c>
+      <c r="D999">
+        <v>537.8099999999999</v>
+      </c>
+      <c r="E999">
+        <v>537.8099999999999</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:5">
+      <c r="A1000" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C1000">
+        <v>674.3100000000001</v>
+      </c>
+      <c r="D1000">
+        <v>635.7117359533178</v>
+      </c>
+      <c r="E1000">
+        <v>649.0633201474323</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:5">
+      <c r="A1001" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C1001">
+        <v>856.3100000000001</v>
+      </c>
+      <c r="D1001">
+        <v>751.9536496955993</v>
+      </c>
+      <c r="E1001">
+        <v>795.0737545020547</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:5">
+      <c r="A1002" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C1002">
+        <v>879.0600000000001</v>
+      </c>
+      <c r="D1002">
+        <v>764.0112905296617</v>
+      </c>
+      <c r="E1002">
+        <v>823.6770789515792</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:5">
+      <c r="A1003" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C1003">
+        <v>901.8100000000001</v>
+      </c>
+      <c r="D1003">
+        <v>783.803427804064</v>
+      </c>
+      <c r="E1003">
+        <v>814.9846902779059</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:5">
+      <c r="A1004" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C1004">
+        <v>924.5600000000001</v>
+      </c>
+      <c r="D1004">
+        <v>890.0777458111553</v>
+      </c>
+      <c r="E1004">
+        <v>873.5660521898915</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:5">
+      <c r="A1005" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C1005">
+        <v>947.3100000000001</v>
+      </c>
+      <c r="D1005">
+        <v>924.6531178558447</v>
+      </c>
+      <c r="E1005">
+        <v>869.3086202186186</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:5">
+      <c r="A1006" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C1006">
+        <v>608.9037499999999</v>
+      </c>
+      <c r="D1006">
+        <v>608.9037499999999</v>
+      </c>
+      <c r="E1006">
+        <v>608.9037499999999</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:5">
+      <c r="A1007" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C1007">
+        <v>823.6769203936001</v>
+      </c>
+      <c r="D1007">
+        <v>722.0020121845358</v>
+      </c>
+      <c r="E1007">
+        <v>810.533595540123</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:5">
+      <c r="A1008" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C1008">
+        <v>1050.129986663576</v>
+      </c>
+      <c r="D1008">
+        <v>825.8499522347438</v>
+      </c>
+      <c r="E1008">
+        <v>1019.15685289026</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:5">
+      <c r="A1009" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C1009">
+        <v>1282.975335138952</v>
+      </c>
+      <c r="D1009">
+        <v>946.6816745512914</v>
+      </c>
+      <c r="E1009">
+        <v>1245.873400299614</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:5">
+      <c r="A1010" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C1010">
+        <v>1512.018603012736</v>
+      </c>
+      <c r="D1010">
+        <v>1077.051865147381</v>
+      </c>
+      <c r="E1010">
+        <v>1433.18210187645</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:5">
+      <c r="A1011" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C1011">
+        <v>1876.018603012736</v>
+      </c>
+      <c r="D1011">
+        <v>1397.357091596639</v>
+      </c>
+      <c r="E1011">
+        <v>1845.406327639785</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:5">
+      <c r="A1012" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C1012">
+        <v>2240.018603012736</v>
+      </c>
+      <c r="D1012">
+        <v>1668.039678323452</v>
+      </c>
+      <c r="E1012">
+        <v>2182.810875597933</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:5">
+      <c r="A1013" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C1013">
+        <v>9365.535106048697</v>
+      </c>
+      <c r="D1013">
+        <v>9365.535106048697</v>
+      </c>
+      <c r="E1013">
+        <v>9365.535106048697</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:5">
+      <c r="A1014" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C1014">
+        <v>11063.93004154507</v>
+      </c>
+      <c r="D1014">
+        <v>10361.28976917068</v>
+      </c>
+      <c r="E1014">
+        <v>9940.132955845243</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:5">
+      <c r="A1015" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C1015">
+        <v>14439.37554154507</v>
+      </c>
+      <c r="D1015">
+        <v>13318.00479823992</v>
+      </c>
+      <c r="E1015">
+        <v>12350.04327084086</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:5">
+      <c r="A1016" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C1016">
+        <v>16233.39868378646</v>
+      </c>
+      <c r="D1016">
+        <v>14710.29451428797</v>
+      </c>
+      <c r="E1016">
+        <v>13775.48009327368</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:5">
+      <c r="A1017" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C1017">
+        <v>15548.49712371017</v>
+      </c>
+      <c r="D1017">
+        <v>13446.13088771379</v>
+      </c>
+      <c r="E1017">
+        <v>12793.90432136298</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:5">
+      <c r="A1018" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C1018">
+        <v>16541.20007971017</v>
+      </c>
+      <c r="D1018">
+        <v>14085.13620130704</v>
+      </c>
+      <c r="E1018">
+        <v>13672.76102373475</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:5">
+      <c r="A1019" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C1019">
+        <v>17471.68303571017</v>
+      </c>
+      <c r="D1019">
+        <v>15261.85447751134</v>
+      </c>
+      <c r="E1019">
+        <v>15268.31288777708</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:5">
+      <c r="A1020" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C1020">
+        <v>1532.421349985133</v>
+      </c>
+      <c r="D1020">
+        <v>1532.421349985133</v>
+      </c>
+      <c r="E1020">
+        <v>1532.421349985133</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:5">
+      <c r="A1021" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C1021">
+        <v>1661.071349985132</v>
+      </c>
+      <c r="D1021">
+        <v>1854.592880512603</v>
+      </c>
+      <c r="E1021">
+        <v>1922.902607837325</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:5">
+      <c r="A1022" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C1022">
+        <v>1903.568849985132</v>
+      </c>
+      <c r="D1022">
+        <v>2172.844437266204</v>
+      </c>
+      <c r="E1022">
+        <v>2370.961541609451</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:5">
+      <c r="A1023" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C1023">
+        <v>2193.573849985132</v>
+      </c>
+      <c r="D1023">
+        <v>2488.009528766827</v>
+      </c>
+      <c r="E1023">
+        <v>2825.465942655549</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:5">
+      <c r="A1024" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C1024">
+        <v>2370.738849985132</v>
+      </c>
+      <c r="D1024">
+        <v>2556.333189176586</v>
+      </c>
+      <c r="E1024">
+        <v>2960.309708201408</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:5">
+      <c r="A1025" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C1025">
+        <v>2474.240099985132</v>
+      </c>
+      <c r="D1025">
+        <v>2788.098543250444</v>
+      </c>
+      <c r="E1025">
+        <v>3263.02439879039</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:5">
+      <c r="A1026" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C1026">
+        <v>2577.741349985133</v>
+      </c>
+      <c r="D1026">
+        <v>2932.786255575566</v>
+      </c>
+      <c r="E1026">
+        <v>3479.378614688227</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:5">
+      <c r="A1027" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C1027">
+        <v>1714.905000000001</v>
+      </c>
+      <c r="D1027">
+        <v>1714.905000000001</v>
+      </c>
+      <c r="E1027">
+        <v>1714.905000000001</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:5">
+      <c r="A1028" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C1028">
+        <v>1977.53</v>
+      </c>
+      <c r="D1028">
+        <v>1841.845193248432</v>
+      </c>
+      <c r="E1028">
+        <v>1922.017432982122</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:5">
+      <c r="A1029" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C1029">
+        <v>2279.255</v>
+      </c>
+      <c r="D1029">
+        <v>1988.331604133209</v>
+      </c>
+      <c r="E1029">
+        <v>2237.05861031498</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:5">
+      <c r="A1030" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C1030">
+        <v>2395.78</v>
+      </c>
+      <c r="D1030">
+        <v>2078.793798279805</v>
+      </c>
+      <c r="E1030">
+        <v>2420.146399313127</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:5">
+      <c r="A1031" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C1031">
+        <v>2657.905</v>
+      </c>
+      <c r="D1031">
+        <v>2215.012114828946</v>
+      </c>
+      <c r="E1031">
+        <v>2689.480950429974</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:5">
+      <c r="A1032" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C1032">
+        <v>2899.105</v>
+      </c>
+      <c r="D1032">
+        <v>2381.487349896531</v>
+      </c>
+      <c r="E1032">
+        <v>2991.148776460102</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:5">
+      <c r="A1033" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C1033">
+        <v>3003.805</v>
+      </c>
+      <c r="D1033">
+        <v>2471.49385348442</v>
+      </c>
+      <c r="E1033">
+        <v>3158.26742375016</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:5">
+      <c r="A1034" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C1034">
+        <v>2521.13</v>
+      </c>
+      <c r="D1034">
+        <v>2521.13</v>
+      </c>
+      <c r="E1034">
+        <v>2521.13</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:5">
+      <c r="A1035" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C1035">
+        <v>2770.72025</v>
+      </c>
+      <c r="D1035">
+        <v>2638.781232084648</v>
+      </c>
+      <c r="E1035">
+        <v>2705.149456477417</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:5">
+      <c r="A1036" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C1036">
+        <v>2921.9835</v>
+      </c>
+      <c r="D1036">
+        <v>2618.306540871423</v>
+      </c>
+      <c r="E1036">
+        <v>2787.540719797453</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:5">
+      <c r="A1037" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C1037">
+        <v>3045.7235</v>
+      </c>
+      <c r="D1037">
+        <v>2654.417212489025</v>
+      </c>
+      <c r="E1037">
+        <v>2933.879757482377</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:5">
+      <c r="A1038" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C1038">
+        <v>3558.249993100972</v>
+      </c>
+      <c r="D1038">
+        <v>2859.066119757716</v>
+      </c>
+      <c r="E1038">
+        <v>3578.617602563529</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:5">
+      <c r="A1039" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C1039">
+        <v>4289.631486201943</v>
+      </c>
+      <c r="D1039">
+        <v>3392.164737552514</v>
+      </c>
+      <c r="E1039">
+        <v>4816.137971684999</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:5">
+      <c r="A1040" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C1040">
+        <v>5183.859186201942</v>
+      </c>
+      <c r="D1040">
+        <v>3722.528047121901</v>
+      </c>
+      <c r="E1040">
+        <v>6128.708143961253</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:5">
+      <c r="A1041" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C1041">
+        <v>530.79</v>
+      </c>
+      <c r="D1041">
+        <v>530.79</v>
+      </c>
+      <c r="E1041">
+        <v>530.79</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:5">
+      <c r="A1042" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C1042">
+        <v>553.5400000000002</v>
+      </c>
+      <c r="D1042">
+        <v>534.8935745593136</v>
+      </c>
+      <c r="E1042">
+        <v>554.6787635218694</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:5">
+      <c r="A1043" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C1043">
+        <v>562.6400000000002</v>
+      </c>
+      <c r="D1043">
+        <v>535.2945422186289</v>
+      </c>
+      <c r="E1043">
+        <v>574.2849606897909</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:5">
+      <c r="A1044" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C1044">
+        <v>564.9150000000002</v>
+      </c>
+      <c r="D1044">
+        <v>536.825896272236</v>
+      </c>
+      <c r="E1044">
+        <v>586.6727343370408</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:5">
+      <c r="A1045" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C1045">
+        <v>567.1900000000002</v>
+      </c>
+      <c r="D1045">
+        <v>538.8475949177745</v>
+      </c>
+      <c r="E1045">
+        <v>580.985305549795</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:5">
+      <c r="A1046" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C1046">
+        <v>569.4650000000001</v>
+      </c>
+      <c r="D1046">
+        <v>552.0678007156453</v>
+      </c>
+      <c r="E1046">
+        <v>579.9542489245346</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:5">
+      <c r="A1047" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C1047">
+        <v>571.7400000000001</v>
+      </c>
+      <c r="D1047">
+        <v>557.0439185575078</v>
+      </c>
+      <c r="E1047">
+        <v>578.3423869077545</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:5">
+      <c r="A1048" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C1048">
+        <v>841.75</v>
+      </c>
+      <c r="D1048">
+        <v>841.75</v>
+      </c>
+      <c r="E1048">
+        <v>841.75</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:5">
+      <c r="A1049" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C1049">
+        <v>936.1625</v>
+      </c>
+      <c r="D1049">
+        <v>853.2487034417003</v>
+      </c>
+      <c r="E1049">
+        <v>901.8955466533205</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:5">
+      <c r="A1050" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1050">
+        <v>1155.7</v>
+      </c>
+      <c r="D1050">
+        <v>919.7647723694314</v>
+      </c>
+      <c r="E1050">
+        <v>1073.053845077163</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:5">
+      <c r="A1051" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C1051">
+        <v>1370.6875</v>
+      </c>
+      <c r="D1051">
+        <v>1052.542210743277</v>
+      </c>
+      <c r="E1051">
+        <v>1284.330849038112</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:5">
+      <c r="A1052" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C1052">
+        <v>1572.025</v>
+      </c>
+      <c r="D1052">
+        <v>1167.005002749644</v>
+      </c>
+      <c r="E1052">
+        <v>1420.672101367389</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:5">
+      <c r="A1053" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C1053">
+        <v>1659.6125</v>
+      </c>
+      <c r="D1053">
+        <v>1345.196675007013</v>
+      </c>
+      <c r="E1053">
+        <v>1567.929990093301</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:5">
+      <c r="A1054" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C1054">
+        <v>1831.375</v>
+      </c>
+      <c r="D1054">
+        <v>1478.93876831341</v>
+      </c>
+      <c r="E1054">
+        <v>1683.734228201836</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:5">
+      <c r="A1055" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C1055">
+        <v>89944.23010755253</v>
+      </c>
+      <c r="D1055">
+        <v>89944.23010755253</v>
+      </c>
+      <c r="E1055">
+        <v>89944.23010755253</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:5">
+      <c r="A1056" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C1056">
+        <v>96494.32617792265</v>
+      </c>
+      <c r="D1056">
+        <v>92081.21903025464</v>
+      </c>
+      <c r="E1056">
+        <v>93013.57875068337</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:5">
+      <c r="A1057" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C1057">
+        <v>104532.227256995</v>
+      </c>
+      <c r="D1057">
+        <v>96954.62738164458</v>
+      </c>
+      <c r="E1057">
+        <v>99625.68298461214</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:5">
+      <c r="A1058" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C1058">
+        <v>116473.0857901775</v>
+      </c>
+      <c r="D1058">
+        <v>102671.4811583361</v>
+      </c>
+      <c r="E1058">
+        <v>106907.9045243533</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:5">
+      <c r="A1059" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C1059">
+        <v>127599.8131400183</v>
+      </c>
+      <c r="D1059">
+        <v>106940.7058971457</v>
+      </c>
+      <c r="E1059">
+        <v>113891.87245876</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:5">
+      <c r="A1060" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C1060">
+        <v>136799.1926556741</v>
+      </c>
+      <c r="D1060">
+        <v>111242.9202440556</v>
+      </c>
+      <c r="E1060">
+        <v>120954.5105586459</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:5">
+      <c r="A1061" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C1061">
+        <v>140813.5563850858</v>
+      </c>
+      <c r="D1061">
+        <v>116926.9184553686</v>
+      </c>
+      <c r="E1061">
+        <v>129233.4665808459</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:5">
+      <c r="A1062" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C1062">
+        <v>2404.17568037356</v>
+      </c>
+      <c r="D1062">
+        <v>2404.17568037356</v>
+      </c>
+      <c r="E1062">
+        <v>2404.17568037356</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:5">
+      <c r="A1063" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C1063">
+        <v>2458.775680373559</v>
+      </c>
+      <c r="D1063">
+        <v>2277.561947153727</v>
+      </c>
+      <c r="E1063">
+        <v>2329.340870393545</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:5">
+      <c r="A1064" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C1064">
+        <v>2513.37568037356</v>
+      </c>
+      <c r="D1064">
+        <v>2250.472170999044</v>
+      </c>
+      <c r="E1064">
+        <v>2365.574611637362</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:5">
+      <c r="A1065" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C1065">
+        <v>2567.975680373559</v>
+      </c>
+      <c r="D1065">
+        <v>2218.658077649434</v>
+      </c>
+      <c r="E1065">
+        <v>2356.458298326803</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:5">
+      <c r="A1066" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C1066">
+        <v>2622.575680373559</v>
+      </c>
+      <c r="D1066">
+        <v>2218.36049967209</v>
+      </c>
+      <c r="E1066">
+        <v>2400.852294079956</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:5">
+      <c r="A1067" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C1067">
+        <v>2658.285678515787</v>
+      </c>
+      <c r="D1067">
+        <v>2229.026242015762</v>
+      </c>
+      <c r="E1067">
+        <v>2424.748347060496</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:5">
+      <c r="A1068" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C1068">
+        <v>2693.995676658014</v>
+      </c>
+      <c r="D1068">
+        <v>2284.619812897578</v>
+      </c>
+      <c r="E1068">
+        <v>2498.332938326076</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:5">
+      <c r="A1069" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C1069">
+        <v>121.485</v>
+      </c>
+      <c r="D1069">
+        <v>121.485</v>
+      </c>
+      <c r="E1069">
+        <v>121.485</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:5">
+      <c r="A1070" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C1070">
+        <v>130.585</v>
+      </c>
+      <c r="D1070">
+        <v>122.8888187454633</v>
+      </c>
+      <c r="E1070">
+        <v>128.5012690692231</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:5">
+      <c r="A1071" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C1071">
+        <v>139.685</v>
+      </c>
+      <c r="D1071">
+        <v>122.9184856273817</v>
+      </c>
+      <c r="E1071">
+        <v>135.5650508069753</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:5">
+      <c r="A1072" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C1072">
+        <v>148.785</v>
+      </c>
+      <c r="D1072">
+        <v>125.8836294900143</v>
+      </c>
+      <c r="E1072">
+        <v>144.4823363213774</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:5">
+      <c r="A1073" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C1073">
+        <v>157.885</v>
+      </c>
+      <c r="D1073">
+        <v>130.7174345755498</v>
+      </c>
+      <c r="E1073">
+        <v>149.6528916402872</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:5">
+      <c r="A1074" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C1074">
+        <v>166.985</v>
+      </c>
+      <c r="D1074">
+        <v>150.0108817471761</v>
+      </c>
+      <c r="E1074">
+        <v>170.0607767934173</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:5">
+      <c r="A1075" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C1075">
+        <v>176.085</v>
+      </c>
+      <c r="D1075">
+        <v>156.8726095640348</v>
+      </c>
+      <c r="E1075">
+        <v>178.1184090647007</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:5">
+      <c r="A1076" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C1076">
+        <v>14192.09</v>
+      </c>
+      <c r="D1076">
+        <v>14192.09</v>
+      </c>
+      <c r="E1076">
+        <v>14192.09</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:5">
+      <c r="A1077" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C1077">
+        <v>16460.84</v>
+      </c>
+      <c r="D1077">
+        <v>16460.84</v>
+      </c>
+      <c r="E1077">
+        <v>16460.84</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:5">
+      <c r="A1078" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1078">
+        <v>18584.39</v>
+      </c>
+      <c r="D1078">
+        <v>18584.39</v>
+      </c>
+      <c r="E1078">
+        <v>18584.39</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:5">
+      <c r="A1079" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C1079">
+        <v>21312.94</v>
+      </c>
+      <c r="D1079">
+        <v>21312.94</v>
+      </c>
+      <c r="E1079">
+        <v>21312.94</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:5">
+      <c r="A1080" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1080">
+        <v>23436.49</v>
+      </c>
+      <c r="D1080">
+        <v>23436.49</v>
+      </c>
+      <c r="E1080">
+        <v>23436.49</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:5">
+      <c r="A1081" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C1081">
+        <v>23645.215</v>
+      </c>
+      <c r="D1081">
+        <v>23645.215</v>
+      </c>
+      <c r="E1081">
+        <v>23645.215</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:5">
+      <c r="A1082" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C1082">
+        <v>23853.94</v>
+      </c>
+      <c r="D1082">
+        <v>23853.94</v>
+      </c>
+      <c r="E1082">
+        <v>23853.94</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:5">
+      <c r="A1083" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C1083">
+        <v>3494.943984585749</v>
+      </c>
+      <c r="D1083">
+        <v>3494.943984585749</v>
+      </c>
+      <c r="E1083">
+        <v>3494.943984585749</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:5">
+      <c r="A1084" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1084">
+        <v>3965.253984585747</v>
+      </c>
+      <c r="D1084">
+        <v>4394.860375897855</v>
+      </c>
+      <c r="E1084">
+        <v>4556.907647075705</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:5">
+      <c r="A1085" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1085">
+        <v>4304.413984585746</v>
+      </c>
+      <c r="D1085">
+        <v>4876.783777112616</v>
+      </c>
+      <c r="E1085">
+        <v>5323.011821116263</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:5">
+      <c r="A1086" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C1086">
+        <v>4500.833984585746</v>
+      </c>
+      <c r="D1086">
+        <v>5032.992066417038</v>
+      </c>
+      <c r="E1086">
+        <v>5722.305949718046</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:5">
+      <c r="A1087" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1087">
+        <v>4694.447984585747</v>
+      </c>
+      <c r="D1087">
+        <v>5049.855853027979</v>
+      </c>
+      <c r="E1087">
+        <v>5849.055079635869</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:5">
+      <c r="A1088" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1088">
+        <v>4765.299484585747</v>
+      </c>
+      <c r="D1088">
+        <v>5371.246941687299</v>
+      </c>
+      <c r="E1088">
+        <v>6286.225834152858</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:5">
+      <c r="A1089" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C1089">
+        <v>4941.375984585747</v>
+      </c>
+      <c r="D1089">
+        <v>5697.139249825038</v>
+      </c>
+      <c r="E1089">
+        <v>6767.964905779052</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:5">
+      <c r="A1090" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C1090">
+        <v>7363.093606480665</v>
+      </c>
+      <c r="D1090">
+        <v>7363.093606480665</v>
+      </c>
+      <c r="E1090">
+        <v>7363.093606480665</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:5">
+      <c r="A1091" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1091">
+        <v>7574.747604551883</v>
+      </c>
+      <c r="D1091">
+        <v>7233.764150624874</v>
+      </c>
+      <c r="E1091">
+        <v>7442.757676425213</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:5">
+      <c r="A1092" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C1092">
+        <v>8424.769356329001</v>
+      </c>
+      <c r="D1092">
+        <v>7483.365773493481</v>
+      </c>
+      <c r="E1092">
+        <v>8090.088862595163</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:5">
+      <c r="A1093" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C1093">
+        <v>9615.708796222716</v>
+      </c>
+      <c r="D1093">
+        <v>8111.643736216877</v>
+      </c>
+      <c r="E1093">
+        <v>9311.789933492042</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:5">
+      <c r="A1094" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C1094">
+        <v>11543.63908867056</v>
+      </c>
+      <c r="D1094">
+        <v>8714.226173022826</v>
+      </c>
+      <c r="E1094">
+        <v>10850.49166779008</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:5">
+      <c r="A1095" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C1095">
+        <v>13303.41891398136</v>
+      </c>
+      <c r="D1095">
+        <v>9894.818753986996</v>
+      </c>
+      <c r="E1095">
+        <v>12994.83666355835</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:5">
+      <c r="A1096" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C1096">
+        <v>14783.37467535485</v>
+      </c>
+      <c r="D1096">
+        <v>10251.69118316227</v>
+      </c>
+      <c r="E1096">
+        <v>14138.12051724015</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:5">
+      <c r="A1097" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C1097">
+        <v>8146.089399738854</v>
+      </c>
+      <c r="D1097">
+        <v>8146.089399738854</v>
+      </c>
+      <c r="E1097">
+        <v>8146.089399738854</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:5">
+      <c r="A1098" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C1098">
+        <v>8865.733324738852</v>
+      </c>
+      <c r="D1098">
+        <v>7994.333151307682</v>
+      </c>
+      <c r="E1098">
+        <v>8241.70348297559</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:5">
+      <c r="A1099" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C1099">
+        <v>9570.756165988852</v>
+      </c>
+      <c r="D1099">
+        <v>8033.005831113051</v>
+      </c>
+      <c r="E1099">
+        <v>8592.51506705065</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:5">
+      <c r="A1100" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C1100">
+        <v>11183.44349386764</v>
+      </c>
+      <c r="D1100">
+        <v>8681.525750004594</v>
+      </c>
+      <c r="E1100">
+        <v>9416.27640436133</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:5">
+      <c r="A1101" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C1101">
+        <v>10817.94897271761</v>
+      </c>
+      <c r="D1101">
+        <v>8169.050911981698</v>
+      </c>
+      <c r="E1101">
+        <v>9101.010367342797</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:5">
+      <c r="A1102" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C1102">
+        <v>11247.57856128008</v>
+      </c>
+      <c r="D1102">
+        <v>8394.264020363347</v>
+      </c>
+      <c r="E1102">
+        <v>9406.145845738361</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:5">
+      <c r="A1103" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C1103">
+        <v>11647.07804984254</v>
+      </c>
+      <c r="D1103">
+        <v>8693.172009077962</v>
+      </c>
+      <c r="E1103">
+        <v>9855.801195010003</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:5">
+      <c r="A1104" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1104">
+        <v>4058.071157180143</v>
+      </c>
+      <c r="D1104">
+        <v>4058.071157180143</v>
+      </c>
+      <c r="E1104">
+        <v>4058.071157180143</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:5">
+      <c r="A1105" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C1105">
+        <v>4079.001157180142</v>
+      </c>
+      <c r="D1105">
+        <v>3963.900869572492</v>
+      </c>
+      <c r="E1105">
+        <v>4049.385594169599</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:5">
+      <c r="A1106" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C1106">
+        <v>4472.576157180142</v>
+      </c>
+      <c r="D1106">
+        <v>4212.708288098873</v>
+      </c>
+      <c r="E1106">
+        <v>4435.877398363672</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:5">
+      <c r="A1107" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C1107">
+        <v>4981.084157180142</v>
+      </c>
+      <c r="D1107">
+        <v>4440.5005178905</v>
+      </c>
+      <c r="E1107">
+        <v>4814.693191035935</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:5">
+      <c r="A1108" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C1108">
+        <v>6223.552657180142</v>
+      </c>
+      <c r="D1108">
+        <v>4907.141802568248</v>
+      </c>
+      <c r="E1108">
+        <v>5348.954878832973</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:5">
+      <c r="A1109" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C1109">
+        <v>7204.737407180142</v>
+      </c>
+      <c r="D1109">
+        <v>5595.50426029133</v>
+      </c>
+      <c r="E1109">
+        <v>6101.21619692185</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:5">
+      <c r="A1110" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C1110">
+        <v>7767.003657180142</v>
+      </c>
+      <c r="D1110">
+        <v>5890.578767721135</v>
+      </c>
+      <c r="E1110">
+        <v>6383.208556840164</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:5">
+      <c r="A1111" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C1111">
+        <v>198.835</v>
+      </c>
+      <c r="D1111">
+        <v>198.835</v>
+      </c>
+      <c r="E1111">
+        <v>198.835</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:5">
+      <c r="A1112" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C1112">
+        <v>221.585</v>
+      </c>
+      <c r="D1112">
+        <v>215.4304056639179</v>
+      </c>
+      <c r="E1112">
+        <v>220.2581753667388</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:5">
+      <c r="A1113" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C1113">
+        <v>335.335</v>
+      </c>
+      <c r="D1113">
+        <v>309.1840406395232</v>
+      </c>
+      <c r="E1113">
+        <v>325.4444379307518</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:5">
+      <c r="A1114" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C1114">
+        <v>358.085</v>
+      </c>
+      <c r="D1114">
+        <v>323.7595307471936</v>
+      </c>
+      <c r="E1114">
+        <v>347.7296595869237</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:5">
+      <c r="A1115" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C1115">
+        <v>360.36</v>
+      </c>
+      <c r="D1115">
+        <v>324.5398375668823</v>
+      </c>
+      <c r="E1115">
+        <v>341.5708650694738</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:5">
+      <c r="A1116" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C1116">
+        <v>362.635</v>
+      </c>
+      <c r="D1116">
+        <v>353.7316170025762</v>
+      </c>
+      <c r="E1116">
+        <v>356.7176373139143</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:5">
+      <c r="A1117" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C1117">
+        <v>364.91</v>
+      </c>
+      <c r="D1117">
+        <v>363.271724071305</v>
+      </c>
+      <c r="E1117">
+        <v>355.5905810528275</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:5">
+      <c r="A1118" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C1118">
+        <v>170.81</v>
+      </c>
+      <c r="D1118">
+        <v>170.81</v>
+      </c>
+      <c r="E1118">
+        <v>170.81</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:5">
+      <c r="A1119" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C1119">
+        <v>304.50525</v>
+      </c>
+      <c r="D1119">
+        <v>335.1670325138841</v>
+      </c>
+      <c r="E1119">
+        <v>347.5378196750095</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:5">
+      <c r="A1120" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C1120">
+        <v>403.6355</v>
+      </c>
+      <c r="D1120">
+        <v>451.7081239819169</v>
+      </c>
+      <c r="E1120">
+        <v>493.2820335705579</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:5">
+      <c r="A1121" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C1121">
+        <v>466.4105</v>
+      </c>
+      <c r="D1121">
+        <v>514.1581101891371</v>
+      </c>
+      <c r="E1121">
+        <v>585.274413726007</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:5">
+      <c r="A1122" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C1122">
+        <v>519.8855</v>
+      </c>
+      <c r="D1122">
+        <v>548.4790397222966</v>
+      </c>
+      <c r="E1122">
+        <v>636.3277878324943</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:5">
+      <c r="A1123" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C1123">
+        <v>536.6255</v>
+      </c>
+      <c r="D1123">
+        <v>584.5968940962517</v>
+      </c>
+      <c r="E1123">
+        <v>685.6614211500535</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:5">
+      <c r="A1124" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C1124">
+        <v>582.0405</v>
+      </c>
+      <c r="D1124">
+        <v>644.6422463866277</v>
+      </c>
+      <c r="E1124">
+        <v>763.6489762319133</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:5">
+      <c r="A1125" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C1125">
+        <v>544.1800000000001</v>
+      </c>
+      <c r="D1125">
+        <v>544.1800000000001</v>
+      </c>
+      <c r="E1125">
+        <v>544.1800000000001</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:5">
+      <c r="A1126" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C1126">
+        <v>693.1925000000001</v>
+      </c>
+      <c r="D1126">
+        <v>618.3392303929095</v>
+      </c>
+      <c r="E1126">
+        <v>682.1313011392378</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:5">
+      <c r="A1127" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C1127">
+        <v>842.205</v>
+      </c>
+      <c r="D1127">
+        <v>680.3517203624788</v>
+      </c>
+      <c r="E1127">
+        <v>817.3645245723496</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:5">
+      <c r="A1128" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C1128">
+        <v>946.855</v>
+      </c>
+      <c r="D1128">
+        <v>728.6646363862347</v>
+      </c>
+      <c r="E1128">
+        <v>919.4732167730474</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:5">
+      <c r="A1129" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C1129">
+        <v>1051.505</v>
+      </c>
+      <c r="D1129">
+        <v>787.0705719780166</v>
+      </c>
+      <c r="E1129">
+        <v>996.6796327974167</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:5">
+      <c r="A1130" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C1130">
+        <v>1178.33625</v>
+      </c>
+      <c r="D1130">
+        <v>940.0705230237426</v>
+      </c>
+      <c r="E1130">
+        <v>1176.020320745126</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:5">
+      <c r="A1131" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C1131">
+        <v>1305.1675</v>
+      </c>
+      <c r="D1131">
+        <v>1037.365148262633</v>
+      </c>
+      <c r="E1131">
+        <v>1291.578066797235</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:5">
+      <c r="A1132" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C1132">
+        <v>495.04</v>
+      </c>
+      <c r="D1132">
+        <v>495.04</v>
+      </c>
+      <c r="E1132">
+        <v>495.04</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:5">
+      <c r="A1133" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C1133">
+        <v>497.88375</v>
+      </c>
+      <c r="D1133">
+        <v>480.1597880286849</v>
+      </c>
+      <c r="E1133">
+        <v>490.1039260973383</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:5">
+      <c r="A1134" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C1134">
+        <v>652.35625</v>
+      </c>
+      <c r="D1134">
+        <v>530.3430801931207</v>
+      </c>
+      <c r="E1134">
+        <v>605.7050985745595</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:5">
+      <c r="A1135" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C1135">
+        <v>929.67875</v>
+      </c>
+      <c r="D1135">
+        <v>686.4831261878709</v>
+      </c>
+      <c r="E1135">
+        <v>871.1067244139824</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:5">
+      <c r="A1136" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C1136">
+        <v>1105.195</v>
+      </c>
+      <c r="D1136">
+        <v>786.522221227956</v>
+      </c>
+      <c r="E1136">
+        <v>998.7879983274639</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:5">
+      <c r="A1137" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C1137">
+        <v>1251.8415</v>
+      </c>
+      <c r="D1137">
+        <v>962.9528612494431</v>
+      </c>
+      <c r="E1137">
+        <v>1182.796397337623</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:5">
+      <c r="A1138" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C1138">
+        <v>1368.913</v>
+      </c>
+      <c r="D1138">
+        <v>1050.611568394118</v>
+      </c>
+      <c r="E1138">
+        <v>1256.196885105541</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:5">
+      <c r="A1139" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C1139">
+        <v>896.35</v>
+      </c>
+      <c r="D1139">
+        <v>896.35</v>
+      </c>
+      <c r="E1139">
+        <v>896.35</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:5">
+      <c r="A1140" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C1140">
+        <v>960.045539488945</v>
+      </c>
+      <c r="D1140">
+        <v>904.3694434295385</v>
+      </c>
+      <c r="E1140">
+        <v>945.0440753203319</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:5">
+      <c r="A1141" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C1141">
+        <v>1027.76143181166</v>
+      </c>
+      <c r="D1141">
+        <v>905.6197810257589</v>
+      </c>
+      <c r="E1141">
+        <v>998.5825329880386</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:5">
+      <c r="A1142" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C1142">
+        <v>1098.03588339991</v>
+      </c>
+      <c r="D1142">
+        <v>933.0227306470807</v>
+      </c>
+      <c r="E1142">
+        <v>1070.69160845435</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:5">
+      <c r="A1143" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C1143">
+        <v>1165.30718925712</v>
+      </c>
+      <c r="D1143">
+        <v>970.9617102156376</v>
+      </c>
+      <c r="E1143">
+        <v>1108.928350658054</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:5">
+      <c r="A1144" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C1144">
+        <v>1232.5464865714</v>
+      </c>
+      <c r="D1144">
+        <v>1108.783561674151</v>
+      </c>
+      <c r="E1144">
+        <v>1245.87954944469</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:5">
+      <c r="A1145" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C1145">
+        <v>1299.78578388568</v>
+      </c>
+      <c r="D1145">
+        <v>1159.717570689934</v>
+      </c>
+      <c r="E1145">
+        <v>1297.792627418004</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:5">
+      <c r="A1146" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C1146">
+        <v>165.198294652633</v>
+      </c>
+      <c r="D1146">
+        <v>165.198294652633</v>
+      </c>
+      <c r="E1146">
+        <v>165.198294652633</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:5">
+      <c r="A1147" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C1147">
+        <v>182.6357946526329</v>
+      </c>
+      <c r="D1147">
+        <v>167.8977516422864</v>
+      </c>
+      <c r="E1147">
+        <v>165.0843714883585</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:5">
+      <c r="A1148" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C1148">
+        <v>200.0732946526329</v>
+      </c>
+      <c r="D1148">
+        <v>184.4214115910374</v>
+      </c>
+      <c r="E1148">
+        <v>178.5720120294712</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:5">
+      <c r="A1149" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C1149">
+        <v>217.5107946526329</v>
+      </c>
+      <c r="D1149">
+        <v>200.2266111315265</v>
+      </c>
+      <c r="E1149">
+        <v>193.7380522074355</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:5">
+      <c r="A1150" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C1150">
+        <v>234.9482946526329</v>
+      </c>
+      <c r="D1150">
+        <v>215.2496265799675</v>
+      </c>
+      <c r="E1150">
+        <v>209.3035973548495</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:5">
+      <c r="A1151" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C1151">
+        <v>249.2744772109644</v>
+      </c>
+      <c r="D1151">
+        <v>230.3034378834604</v>
+      </c>
+      <c r="E1151">
+        <v>225.8096820106449</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:5">
+      <c r="A1152" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C1152">
+        <v>263.6006597692959</v>
+      </c>
+      <c r="D1152">
+        <v>261.3159418418799</v>
+      </c>
+      <c r="E1152">
+        <v>262.0611177614809</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:5">
+      <c r="A1153" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C1153">
+        <v>1083.355</v>
+      </c>
+      <c r="D1153">
+        <v>1083.355</v>
+      </c>
+      <c r="E1153">
+        <v>1083.355</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:5">
+      <c r="A1154" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C1154">
+        <v>1216.67</v>
+      </c>
+      <c r="D1154">
+        <v>1182.876601119747</v>
+      </c>
+      <c r="E1154">
+        <v>1209.384724703614</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:5">
+      <c r="A1155" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C1155">
+        <v>1243.697</v>
+      </c>
+      <c r="D1155">
+        <v>1184.565119891768</v>
+      </c>
+      <c r="E1155">
+        <v>1249.15882192909</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:5">
+      <c r="A1156" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C1156">
+        <v>1270.997</v>
+      </c>
+      <c r="D1156">
+        <v>1203.73841958055</v>
+      </c>
+      <c r="E1156">
+        <v>1303.29307222729</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:5">
+      <c r="A1157" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C1157">
+        <v>1698.242</v>
+      </c>
+      <c r="D1157">
+        <v>1386.157999405771</v>
+      </c>
+      <c r="E1157">
+        <v>1609.695829274374</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:5">
+      <c r="A1158" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C1158">
+        <v>1921.556</v>
+      </c>
+      <c r="D1158">
+        <v>1642.952431457499</v>
+      </c>
+      <c r="E1158">
+        <v>1890.200659854608</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:5">
+      <c r="A1159" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C1159">
+        <v>2247.245</v>
+      </c>
+      <c r="D1159">
+        <v>1887.491028770687</v>
+      </c>
+      <c r="E1159">
+        <v>2189.852717979944</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:5">
+      <c r="A1160" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C1160">
+        <v>3527.615</v>
+      </c>
+      <c r="D1160">
+        <v>3527.615</v>
+      </c>
+      <c r="E1160">
+        <v>3527.615</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:5">
+      <c r="A1161" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C1161">
+        <v>3976.7</v>
+      </c>
+      <c r="D1161">
+        <v>3670.156947025221</v>
+      </c>
+      <c r="E1161">
+        <v>3834.375766689174</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:5">
+      <c r="A1162" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C1162">
+        <v>4434.22525</v>
+      </c>
+      <c r="D1162">
+        <v>3734.206014872937</v>
+      </c>
+      <c r="E1162">
+        <v>4113.642846777796</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:5">
+      <c r="A1163" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C1163">
+        <v>4827.459000000001</v>
+      </c>
+      <c r="D1163">
+        <v>3939.353477198719</v>
+      </c>
+      <c r="E1163">
+        <v>4503.605735525893</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:5">
+      <c r="A1164" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C1164">
+        <v>5395.044651953813</v>
+      </c>
+      <c r="D1164">
+        <v>4134.064850298387</v>
+      </c>
+      <c r="E1164">
+        <v>4853.179429880082</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:5">
+      <c r="A1165" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C1165">
+        <v>5837.027553907625</v>
+      </c>
+      <c r="D1165">
+        <v>4733.63053644114</v>
+      </c>
+      <c r="E1165">
+        <v>5580.349704521362</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:5">
+      <c r="A1166" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C1166">
+        <v>6620.388006512708</v>
+      </c>
+      <c r="D1166">
+        <v>4955.491774060873</v>
+      </c>
+      <c r="E1166">
+        <v>6179.547492509842</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:5">
+      <c r="A1167" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C1167">
+        <v>10251.24428571429</v>
+      </c>
+      <c r="D1167">
+        <v>10251.24428571429</v>
+      </c>
+      <c r="E1167">
+        <v>10251.24428571429</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:5">
+      <c r="A1168" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C1168">
+        <v>11648.12811566074</v>
+      </c>
+      <c r="D1168">
+        <v>11284.49209654192</v>
+      </c>
+      <c r="E1168">
+        <v>11437.09621533372</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:5">
+      <c r="A1169" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C1169">
+        <v>13400.53774299692</v>
+      </c>
+      <c r="D1169">
+        <v>11286.21508568956</v>
+      </c>
+      <c r="E1169">
+        <v>11147.38578874808</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:5">
+      <c r="A1170" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C1170">
+        <v>13365.80800657429</v>
+      </c>
+      <c r="D1170">
+        <v>12778.74788541442</v>
+      </c>
+      <c r="E1170">
+        <v>13969.39277074248</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:5">
+      <c r="A1171" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C1171">
+        <v>15434.64576901395</v>
+      </c>
+      <c r="D1171">
+        <v>13736.38707445423</v>
+      </c>
+      <c r="E1171">
+        <v>14911.80342007351</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:5">
+      <c r="A1172" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C1172">
+        <v>17051.12967536027</v>
+      </c>
+      <c r="D1172">
+        <v>14772.15200469762</v>
+      </c>
+      <c r="E1172">
+        <v>16174.31274682742</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:5">
+      <c r="A1173" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C1173">
+        <v>18165.07747474967</v>
+      </c>
+      <c r="D1173">
+        <v>15766.30833853045</v>
+      </c>
+      <c r="E1173">
+        <v>17657.8145733563</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:5">
+      <c r="A1174" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C1174">
+        <v>1300.69070789846</v>
+      </c>
+      <c r="D1174">
+        <v>1300.69070789846</v>
+      </c>
+      <c r="E1174">
+        <v>1300.69070789846</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:5">
+      <c r="A1175" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C1175">
+        <v>1349.720635714286</v>
+      </c>
+      <c r="D1175">
+        <v>1339.545436051747</v>
+      </c>
+      <c r="E1175">
+        <v>1345.955504223094</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:5">
+      <c r="A1176" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C1176">
+        <v>1449.204102521009</v>
+      </c>
+      <c r="D1176">
+        <v>1084.787995494406</v>
+      </c>
+      <c r="E1176">
+        <v>1102.609611652929</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:5">
+      <c r="A1177" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C1177">
+        <v>1549.684355916306</v>
+      </c>
+      <c r="D1177">
+        <v>1446.183104937629</v>
+      </c>
+      <c r="E1177">
+        <v>1486.237151968368</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:5">
+      <c r="A1178" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C1178">
+        <v>1659.945092568543</v>
+      </c>
+      <c r="D1178">
+        <v>1503.443912003712</v>
+      </c>
+      <c r="E1178">
+        <v>1572.645946135009</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:5">
+      <c r="A1179" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C1179">
+        <v>1356.446</v>
+      </c>
+      <c r="D1179">
+        <v>1243.525740032619</v>
+      </c>
+      <c r="E1179">
+        <v>1323.221918833497</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:5">
+      <c r="A1180" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C1180">
+        <v>1840.14481220527</v>
+      </c>
+      <c r="D1180">
+        <v>1744.210914457419</v>
+      </c>
+      <c r="E1180">
+        <v>1885.101823481591</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:5">
+      <c r="A1181" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C1181">
+        <v>1524.51554945055</v>
+      </c>
+      <c r="D1181">
+        <v>1524.51554945055</v>
+      </c>
+      <c r="E1181">
+        <v>1524.51554945055</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:5">
+      <c r="A1182" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C1182">
+        <v>1438.265137865371</v>
+      </c>
+      <c r="D1182">
+        <v>1006.086691333944</v>
+      </c>
+      <c r="E1182">
+        <v>1028.803946306224</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:5">
+      <c r="A1183" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C1183">
+        <v>1509.69226068784</v>
+      </c>
+      <c r="D1183">
+        <v>998.9398043801081</v>
+      </c>
+      <c r="E1183">
+        <v>1055.902323684038</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:5">
+      <c r="A1184" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C1184">
+        <v>1597.164293239272</v>
+      </c>
+      <c r="D1184">
+        <v>1025.770319347856</v>
+      </c>
+      <c r="E1184">
+        <v>1110.681429425499</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:5">
+      <c r="A1185" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C1185">
+        <v>1842.616050229642</v>
+      </c>
+      <c r="D1185">
+        <v>1539.168334583076</v>
+      </c>
+      <c r="E1185">
+        <v>1693.682957214041</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:5">
+      <c r="A1186" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C1186">
+        <v>1378.48165</v>
+      </c>
+      <c r="D1186">
+        <v>1278.186872008157</v>
+      </c>
+      <c r="E1186">
+        <v>1393.393365468236</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:5">
+      <c r="A1187" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C1187">
+        <v>1794.214233153014</v>
+      </c>
+      <c r="D1187">
+        <v>1645.851426765332</v>
+      </c>
+      <c r="E1187">
+        <v>1770.837019550116</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:5">
+      <c r="A1188" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C1188">
+        <v>1336.22983516484</v>
+      </c>
+      <c r="D1188">
+        <v>1336.22983516484</v>
+      </c>
+      <c r="E1188">
+        <v>1336.22983516484</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:5">
+      <c r="A1189" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C1189">
+        <v>1719.231883293831</v>
+      </c>
+      <c r="D1189">
+        <v>1679.572723290684</v>
+      </c>
+      <c r="E1189">
+        <v>1709.186393939518</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:5">
+      <c r="A1190" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C1190">
+        <v>2133.104858675186</v>
+      </c>
+      <c r="D1190">
+        <v>1954.749666147864</v>
+      </c>
+      <c r="E1190">
+        <v>2049.640757808267</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:5">
+      <c r="A1191" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C1191">
+        <v>2319.697239290479</v>
+      </c>
+      <c r="D1191">
+        <v>1536.880088499229</v>
+      </c>
+      <c r="E1191">
+        <v>1650.66771455726</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:5">
+      <c r="A1192" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C1192">
+        <v>2506.22442678089</v>
+      </c>
+      <c r="D1192">
+        <v>2201.999308187115</v>
+      </c>
+      <c r="E1192">
+        <v>2304.902216426649</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:5">
+      <c r="A1193" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C1193">
+        <v>2514.728540671639</v>
+      </c>
+      <c r="D1193">
+        <v>2439.426616815496</v>
+      </c>
+      <c r="E1193">
+        <v>2432.655039259977</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:5">
+      <c r="A1194" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C1194">
+        <v>2523.007194242768</v>
+      </c>
+      <c r="D1194">
+        <v>2506.030473321054</v>
+      </c>
+      <c r="E1194">
+        <v>1802.343220049377</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:5">
+      <c r="A1195" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C1195">
+        <v>2165.560989010993</v>
+      </c>
+      <c r="D1195">
+        <v>2165.560989010993</v>
+      </c>
+      <c r="E1195">
+        <v>2165.560989010993</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:5">
+      <c r="A1196" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C1196">
+        <v>1280.247809099612</v>
+      </c>
+      <c r="D1196">
+        <v>1227.469540210015</v>
+      </c>
+      <c r="E1196">
+        <v>1260.718649809542</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:5">
+      <c r="A1197" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C1197">
+        <v>1845.422762345254</v>
+      </c>
+      <c r="D1197">
+        <v>1207.91954339286</v>
+      </c>
+      <c r="E1197">
+        <v>1283.042236537208</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:5">
+      <c r="A1198" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C1198">
+        <v>2039.940288512038</v>
+      </c>
+      <c r="D1198">
+        <v>1796.548985907464</v>
+      </c>
+      <c r="E1198">
+        <v>1937.816103197084</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:5">
+      <c r="A1199" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C1199">
+        <v>2208.92617117565</v>
+      </c>
+      <c r="D1199">
+        <v>1917.292433232329</v>
+      </c>
+      <c r="E1199">
+        <v>2130.233842166096</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:5">
+      <c r="A1200" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C1200">
+        <v>2453.130886950958</v>
+      </c>
+      <c r="D1200">
+        <v>2158.555276532304</v>
+      </c>
+      <c r="E1200">
+        <v>2702.285289201081</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:5">
+      <c r="A1201" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C1201">
+        <v>2785.179158251581</v>
+      </c>
+      <c r="D1201">
+        <v>2605.514366232856</v>
+      </c>
+      <c r="E1201">
+        <v>3683.759448673048</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:5">
+      <c r="A1202" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C1202">
+        <v>5892.14500000001</v>
+      </c>
+      <c r="D1202">
+        <v>5892.14500000001</v>
+      </c>
+      <c r="E1202">
+        <v>5892.14500000001</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:5">
+      <c r="A1203" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C1203">
+        <v>5019.672632471262</v>
+      </c>
+      <c r="D1203">
+        <v>4959.03603001486</v>
+      </c>
+      <c r="E1203">
+        <v>5013.75198991377</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:5">
+      <c r="A1204" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C1204">
+        <v>5845.069364325177</v>
+      </c>
+      <c r="D1204">
+        <v>5663.093281950167</v>
+      </c>
+      <c r="E1204">
+        <v>5857.5063174104</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:5">
+      <c r="A1205" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C1205">
+        <v>6281.019224683148</v>
+      </c>
+      <c r="D1205">
+        <v>6498.791853712186</v>
+      </c>
+      <c r="E1205">
+        <v>6898.430817028239</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:5">
+      <c r="A1206" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C1206">
+        <v>6549.624168756754</v>
+      </c>
+      <c r="D1206">
+        <v>7150.940253784525</v>
+      </c>
+      <c r="E1206">
+        <v>7638.926362955841</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:5">
+      <c r="A1207" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C1207">
+        <v>6952.732089944147</v>
+      </c>
+      <c r="D1207">
+        <v>8697.825920665051</v>
+      </c>
+      <c r="E1207">
+        <v>9309.453659937639</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:5">
+      <c r="A1208" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C1208">
+        <v>7365.587212283392</v>
+      </c>
+      <c r="D1208">
+        <v>10107.57405631355</v>
+      </c>
+      <c r="E1208">
+        <v>10887.62736926018</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:5">
+      <c r="A1209" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C1209">
+        <v>1182.79901098901</v>
+      </c>
+      <c r="D1209">
+        <v>1182.79901098901</v>
+      </c>
+      <c r="E1209">
+        <v>1182.79901098901</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:5">
+      <c r="A1210" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C1210">
+        <v>722.6332506704865</v>
+      </c>
+      <c r="D1210">
+        <v>683.4702624116908</v>
+      </c>
+      <c r="E1210">
+        <v>697.7867933020241</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:5">
+      <c r="A1211" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C1211">
+        <v>1341.207734391966</v>
+      </c>
+      <c r="D1211">
+        <v>1172.43892290979</v>
+      </c>
+      <c r="E1211">
+        <v>1232.114869362613</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:5">
+      <c r="A1212" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C1212">
+        <v>1383.578423430386</v>
+      </c>
+      <c r="D1212">
+        <v>826.9750053636227</v>
+      </c>
+      <c r="E1212">
+        <v>891.366979414512</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:5">
+      <c r="A1213" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C1213">
+        <v>1423.732546222821</v>
+      </c>
+      <c r="D1213">
+        <v>1213.376802574997</v>
+      </c>
+      <c r="E1213">
+        <v>897.0792020414872</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:5">
+      <c r="A1214" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C1214">
+        <v>1470.822257550939</v>
+      </c>
+      <c r="D1214">
+        <v>1406.6104617847</v>
+      </c>
+      <c r="E1214">
+        <v>1384.511238759821</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:5">
+      <c r="A1215" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C1215">
+        <v>1510.246318011962</v>
+      </c>
+      <c r="D1215">
+        <v>1476.679578872261</v>
+      </c>
+      <c r="E1215">
+        <v>982.1115017432644</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:5">
+      <c r="A1216" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C1216">
+        <v>816.321332417582</v>
+      </c>
+      <c r="D1216">
+        <v>816.321332417582</v>
+      </c>
+      <c r="E1216">
+        <v>816.321332417582</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:5">
+      <c r="A1217" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C1217">
+        <v>1124.487843495824</v>
+      </c>
+      <c r="D1217">
+        <v>998.2826059682959</v>
+      </c>
+      <c r="E1217">
+        <v>1117.904307910435</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:5">
+      <c r="A1218" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C1218">
+        <v>1433.642700015609</v>
+      </c>
+      <c r="D1218">
+        <v>825.8499522347438</v>
+      </c>
+      <c r="E1218">
+        <v>1377.500450428166</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:5">
+      <c r="A1219" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C1219">
+        <v>1751.524332112319</v>
+      </c>
+      <c r="D1219">
+        <v>1266.387576992007</v>
+      </c>
+      <c r="E1219">
+        <v>1660.428638280406</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:5">
+      <c r="A1220" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C1220">
+        <v>2064.215344791844</v>
+      </c>
+      <c r="D1220">
+        <v>1434.269264181771</v>
+      </c>
+      <c r="E1220">
+        <v>1897.973701987288</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:5">
+      <c r="A1221" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C1221">
+        <v>2561.149961870694</v>
+      </c>
+      <c r="D1221">
+        <v>1897.053951732662</v>
+      </c>
+      <c r="E1221">
+        <v>2477.063493840325</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:5">
+      <c r="A1222" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C1222">
+        <v>3058.084578949543</v>
+      </c>
+      <c r="D1222">
+        <v>1668.039678323452</v>
+      </c>
+      <c r="E1222">
+        <v>2925.506045015472</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:5">
+      <c r="A1223" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C1223">
+        <v>29530.80272012072</v>
+      </c>
+      <c r="D1223">
+        <v>29530.80272012072</v>
+      </c>
+      <c r="E1223">
+        <v>29530.80272012072</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:5">
+      <c r="A1224" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C1224">
+        <v>32746.02694873237</v>
+      </c>
+      <c r="D1224">
+        <v>32739.67037210066</v>
+      </c>
+      <c r="E1224">
+        <v>32635.34036470399</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:5">
+      <c r="A1225" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C1225">
+        <v>40654.92801652265</v>
+      </c>
+      <c r="D1225">
+        <v>32661.26447792788</v>
+      </c>
+      <c r="E1225">
+        <v>28338.19457070947</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:5">
+      <c r="A1226" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C1226">
+        <v>59576.54882483306</v>
+      </c>
+      <c r="D1226">
+        <v>46382.15555198614</v>
+      </c>
+      <c r="E1226">
+        <v>54243.77246081878</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:5">
+      <c r="A1227" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C1227">
+        <v>63684.06778832083</v>
+      </c>
+      <c r="D1227">
+        <v>51335.15869366467</v>
+      </c>
+      <c r="E1227">
+        <v>58942.12496192774</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:5">
+      <c r="A1228" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C1228">
+        <v>78157.08184798899</v>
+      </c>
+      <c r="D1228">
+        <v>58588.53750073619</v>
+      </c>
+      <c r="E1228">
+        <v>68956.95499686341</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:5">
+      <c r="A1229" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C1229">
+        <v>88338.56786321024</v>
+      </c>
+      <c r="D1229">
+        <v>68023.70357680366</v>
+      </c>
+      <c r="E1229">
+        <v>83751.82738644327</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:5">
+      <c r="A1230" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C1230">
+        <v>7404.998273062057</v>
+      </c>
+      <c r="D1230">
+        <v>7404.998273062057</v>
+      </c>
+      <c r="E1230">
+        <v>7404.998273062057</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:5">
+      <c r="A1231" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C1231">
+        <v>6155.631232272855</v>
+      </c>
+      <c r="D1231">
+        <v>6987.131632556301</v>
+      </c>
+      <c r="E1231">
+        <v>7151.075895416545</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:5">
+      <c r="A1232" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C1232">
+        <v>6928.716715575487</v>
+      </c>
+      <c r="D1232">
+        <v>6359.596655662673</v>
+      </c>
+      <c r="E1232">
+        <v>5796.106286628041</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:5">
+      <c r="A1233" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C1233">
+        <v>11188.83168598598</v>
+      </c>
+      <c r="D1233">
+        <v>9131.187094616282</v>
+      </c>
+      <c r="E1233">
+        <v>11682.75285901119</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:5">
+      <c r="A1234" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C1234">
+        <v>11680.27695127065</v>
+      </c>
+      <c r="D1234">
+        <v>10356.78728002411</v>
+      </c>
+      <c r="E1234">
+        <v>12693.98203692862</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:5">
+      <c r="A1235" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C1235">
+        <v>13143.52029680626</v>
+      </c>
+      <c r="D1235">
+        <v>11442.71944107799</v>
+      </c>
+      <c r="E1235">
+        <v>13998.29080731275</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:5">
+      <c r="A1236" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C1236">
+        <v>13776.55770523324</v>
+      </c>
+      <c r="D1236">
+        <v>12377.75833958677</v>
+      </c>
+      <c r="E1236">
+        <v>15284.82420810931</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:5">
+      <c r="A1237" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C1237">
+        <v>2022.948956043958</v>
+      </c>
+      <c r="D1237">
+        <v>2022.948956043958</v>
+      </c>
+      <c r="E1237">
+        <v>2022.948956043958</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:5">
+      <c r="A1238" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C1238">
+        <v>2711.392808729584</v>
+      </c>
+      <c r="D1238">
+        <v>2650.271469987057</v>
+      </c>
+      <c r="E1238">
+        <v>2756.393756220436</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:5">
+      <c r="A1239" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C1239">
+        <v>3151.288934035689</v>
+      </c>
+      <c r="D1239">
+        <v>2915.565054020974</v>
+      </c>
+      <c r="E1239">
+        <v>3255.084996870935</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:5">
+      <c r="A1240" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C1240">
+        <v>3336.28016431201</v>
+      </c>
+      <c r="D1240">
+        <v>2359.925883774999</v>
+      </c>
+      <c r="E1240">
+        <v>2736.841954108158</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:5">
+      <c r="A1241" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C1241">
+        <v>3740.264859056027</v>
+      </c>
+      <c r="D1241">
+        <v>3227.476419834582</v>
+      </c>
+      <c r="E1241">
+        <v>3904.485870612069</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:5">
+      <c r="A1242" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C1242">
+        <v>4086.848048664055</v>
+      </c>
+      <c r="D1242">
+        <v>3609.914972404723</v>
+      </c>
+      <c r="E1242">
+        <v>4478.549460748087</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:5">
+      <c r="A1243" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C1243">
+        <v>3943.834358678093</v>
+      </c>
+      <c r="D1243">
+        <v>3447.20925787075</v>
+      </c>
+      <c r="E1243">
+        <v>4349.782967905308</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:5">
+      <c r="A1244" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C1244">
+        <v>5192.767362637363</v>
+      </c>
+      <c r="D1244">
+        <v>5192.767362637363</v>
+      </c>
+      <c r="E1244">
+        <v>5192.767362637363</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:5">
+      <c r="A1245" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C1245">
+        <v>5832.765633312843</v>
+      </c>
+      <c r="D1245">
+        <v>5509.133738808694</v>
+      </c>
+      <c r="E1245">
+        <v>5620.323157705023</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:5">
+      <c r="A1246" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C1246">
+        <v>6783.544063860028</v>
+      </c>
+      <c r="D1246">
+        <v>5781.129880907918</v>
+      </c>
+      <c r="E1246">
+        <v>6059.859725827225</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:5">
+      <c r="A1247" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C1247">
+        <v>6427.432280402036</v>
+      </c>
+      <c r="D1247">
+        <v>6195.972916699968</v>
+      </c>
+      <c r="E1247">
+        <v>6689.956168596629</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:5">
+      <c r="A1248" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C1248">
+        <v>8234.127819220095</v>
+      </c>
+      <c r="D1248">
+        <v>7038.222188381717</v>
+      </c>
+      <c r="E1248">
+        <v>8619.629965271512</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:5">
+      <c r="A1249" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C1249">
+        <v>9664.09550306711</v>
+      </c>
+      <c r="D1249">
+        <v>8291.243920193567</v>
+      </c>
+      <c r="E1249">
+        <v>11426.81482613487</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:5">
+      <c r="A1250" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C1250">
+        <v>11443.87254122176</v>
+      </c>
+      <c r="D1250">
+        <v>9530.429384492572</v>
+      </c>
+      <c r="E1250">
+        <v>15003.28499389903</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:5">
+      <c r="A1251" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C1251">
+        <v>621.998791208791</v>
+      </c>
+      <c r="D1251">
+        <v>621.998791208791</v>
+      </c>
+      <c r="E1251">
+        <v>621.998791208791</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:5">
+      <c r="A1252" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C1252">
+        <v>684.4159218401815</v>
+      </c>
+      <c r="D1252">
+        <v>534.8935745593136</v>
+      </c>
+      <c r="E1252">
+        <v>694.5025095629732</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:5">
+      <c r="A1253" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C1253">
+        <v>695.667475275788</v>
+      </c>
+      <c r="D1253">
+        <v>535.2945422186289</v>
+      </c>
+      <c r="E1253">
+        <v>574.2849606897909</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:5">
+      <c r="A1254" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C1254">
+        <v>698.4803636346896</v>
+      </c>
+      <c r="D1254">
+        <v>536.825896272236</v>
+      </c>
+      <c r="E1254">
+        <v>586.6727343370408</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:5">
+      <c r="A1255" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C1255">
+        <v>701.2932519935913</v>
+      </c>
+      <c r="D1255">
+        <v>538.8475949177745</v>
+      </c>
+      <c r="E1255">
+        <v>580.985305549795</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:5">
+      <c r="A1256" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C1256">
+        <v>704.1061403524928</v>
+      </c>
+      <c r="D1256">
+        <v>680.9630586521093</v>
+      </c>
+      <c r="E1256">
+        <v>708.6248026366126</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:5">
+      <c r="A1257" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C1257">
+        <v>706.9190287113945</v>
+      </c>
+      <c r="D1257">
+        <v>690.6300586934449</v>
+      </c>
+      <c r="E1257">
+        <v>578.3423869077545</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:5">
+      <c r="A1258" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C1258">
+        <v>1532.914835164835</v>
+      </c>
+      <c r="D1258">
+        <v>1532.914835164835</v>
+      </c>
+      <c r="E1258">
+        <v>1532.914835164835</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:5">
+      <c r="A1259" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C1259">
+        <v>1474.160418247544</v>
+      </c>
+      <c r="D1259">
+        <v>1395.283845967498</v>
+      </c>
+      <c r="E1259">
+        <v>1455.034773957939</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:5">
+      <c r="A1260" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C1260">
+        <v>1813.608003427355</v>
+      </c>
+      <c r="D1260">
+        <v>1480.929081754058</v>
+      </c>
+      <c r="E1260">
+        <v>1666.383855882257</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:5">
+      <c r="A1261" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C1261">
+        <v>2147.899960549496</v>
+      </c>
+      <c r="D1261">
+        <v>1632.018063610075</v>
+      </c>
+      <c r="E1261">
+        <v>1964.368626480794</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:5">
+      <c r="A1262" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1262">
+        <v>2458.574978153026</v>
+      </c>
+      <c r="D1262">
+        <v>1800.916215333775</v>
+      </c>
+      <c r="E1262">
+        <v>2173.923437451141</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:5">
+      <c r="A1263" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C1263">
+        <v>2610.028610859289</v>
+      </c>
+      <c r="D1263">
+        <v>2122.525607644207</v>
+      </c>
+      <c r="E1263">
+        <v>2450.525726639244</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:5">
+      <c r="A1264" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C1264">
+        <v>2875.326511608549</v>
+      </c>
+      <c r="D1264">
+        <v>2347.090981259112</v>
+      </c>
+      <c r="E1264">
+        <v>2648.513510844145</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:5">
+      <c r="A1265" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C1265">
+        <v>321056.7777815452</v>
+      </c>
+      <c r="D1265">
+        <v>321056.7777815452</v>
+      </c>
+      <c r="E1265">
+        <v>321056.7777815452</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:5">
+      <c r="A1266" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C1266">
+        <v>370582.1995049816</v>
+      </c>
+      <c r="D1266">
+        <v>348401.8533125979</v>
+      </c>
+      <c r="E1266">
+        <v>352657.1635480625</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:5">
+      <c r="A1267" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C1267">
+        <v>412249.7432852864</v>
+      </c>
+      <c r="D1267">
+        <v>392488.9193652301</v>
+      </c>
+      <c r="E1267">
+        <v>408354.303324618</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:5">
+      <c r="A1268" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C1268">
+        <v>469731.6555560225</v>
+      </c>
+      <c r="D1268">
+        <v>422802.8461140175</v>
+      </c>
+      <c r="E1268">
+        <v>437544.7561189974</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:5">
+      <c r="A1269" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C1269">
+        <v>528876.4603541128</v>
+      </c>
+      <c r="D1269">
+        <v>458731.4927310848</v>
+      </c>
+      <c r="E1269">
+        <v>491803.1294737434</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:5">
+      <c r="A1270" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C1270">
+        <v>590668.5662612802</v>
+      </c>
+      <c r="D1270">
+        <v>494593.3540761059</v>
+      </c>
+      <c r="E1270">
+        <v>542975.137197917</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:5">
+      <c r="A1271" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C1271">
+        <v>620432.3750198297</v>
+      </c>
+      <c r="D1271">
+        <v>529811.0746880868</v>
+      </c>
+      <c r="E1271">
+        <v>595039.6896963766</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:5">
+      <c r="A1272" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C1272">
+        <v>4846.692163890043</v>
+      </c>
+      <c r="D1272">
+        <v>4846.692163890043</v>
+      </c>
+      <c r="E1272">
+        <v>4846.692163890043</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:5">
+      <c r="A1273" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C1273">
+        <v>4694.175623105867</v>
+      </c>
+      <c r="D1273">
+        <v>4816.29122157146</v>
+      </c>
+      <c r="E1273">
+        <v>5034.968181168839</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:5">
+      <c r="A1274" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1274">
+        <v>-2620.109821550556</v>
+      </c>
+      <c r="D1274">
+        <v>7857.054186543108</v>
+      </c>
+      <c r="E1274">
+        <v>9540.685212894128</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:5">
+      <c r="A1275" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C1275">
+        <v>20249.52614084974</v>
+      </c>
+      <c r="D1275">
+        <v>7298.318292847319</v>
+      </c>
+      <c r="E1275">
+        <v>6733.148256970482</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:5">
+      <c r="A1276" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C1276">
+        <v>9522.7349132165</v>
+      </c>
+      <c r="D1276">
+        <v>7801.697156192912</v>
+      </c>
+      <c r="E1276">
+        <v>8165.325793192539</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:5">
+      <c r="A1277" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C1277">
+        <v>9817.629421551663</v>
+      </c>
+      <c r="D1277">
+        <v>8213.657020102952</v>
+      </c>
+      <c r="E1277">
+        <v>8837.147293304119</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:5">
+      <c r="A1278" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C1278">
+        <v>9985.422929546392</v>
+      </c>
+      <c r="D1278">
+        <v>8589.471983541611</v>
+      </c>
+      <c r="E1278">
+        <v>9388.847299170588</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:5">
+      <c r="A1279" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1279">
+        <v>194.836648351648</v>
+      </c>
+      <c r="D1279">
+        <v>194.836648351648</v>
+      </c>
+      <c r="E1279">
+        <v>194.836648351648</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:5">
+      <c r="A1280" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C1280">
+        <v>130.585</v>
+      </c>
+      <c r="D1280">
+        <v>122.8888187454633</v>
+      </c>
+      <c r="E1280">
+        <v>128.5012690692231</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:5">
+      <c r="A1281" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1281">
+        <v>190.6986593040086</v>
+      </c>
+      <c r="D1281">
+        <v>122.9184856273817</v>
+      </c>
+      <c r="E1281">
+        <v>135.5650508069753</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:5">
+      <c r="A1282" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C1282">
+        <v>203.1220247309798</v>
+      </c>
+      <c r="D1282">
+        <v>125.8836294900143</v>
+      </c>
+      <c r="E1282">
+        <v>144.4823363213774</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:5">
+      <c r="A1283" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C1283">
+        <v>215.5453901579511</v>
+      </c>
+      <c r="D1283">
+        <v>174.0714674671194</v>
+      </c>
+      <c r="E1283">
+        <v>149.6528916402872</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:5">
+      <c r="A1284" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C1284">
+        <v>166.985</v>
+      </c>
+      <c r="D1284">
+        <v>150.0108817471761</v>
+      </c>
+      <c r="E1284">
+        <v>170.0607767934173</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:5">
+      <c r="A1285" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C1285">
+        <v>217.7175589789867</v>
+      </c>
+      <c r="D1285">
+        <v>194.4926350352362</v>
+      </c>
+      <c r="E1285">
+        <v>217.5681836321714</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:5">
+      <c r="A1286" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C1286">
+        <v>26549.23285714286</v>
+      </c>
+      <c r="D1286">
+        <v>26549.23285714286</v>
+      </c>
+      <c r="E1286">
+        <v>26549.23285714286</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:5">
+      <c r="A1287" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C1287">
+        <v>37838.72037930858</v>
+      </c>
+      <c r="D1287">
+        <v>34642.69546958286</v>
+      </c>
+      <c r="E1287">
+        <v>35029.03856463587</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:5">
+      <c r="A1288" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C1288">
+        <v>52578.45620489049</v>
+      </c>
+      <c r="D1288">
+        <v>41502.71244238754</v>
+      </c>
+      <c r="E1288">
+        <v>42657.05981428407</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:5">
+      <c r="A1289" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C1289">
+        <v>45324.00903237275</v>
+      </c>
+      <c r="D1289">
+        <v>50304.39879900568</v>
+      </c>
+      <c r="E1289">
+        <v>52912.11090948903</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:5">
+      <c r="A1290" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C1290">
+        <v>63128.73769149381</v>
+      </c>
+      <c r="D1290">
+        <v>57431.62764082442</v>
+      </c>
+      <c r="E1290">
+        <v>61085.7219245968</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:5">
+      <c r="A1291" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C1291">
+        <v>70990.81551159442</v>
+      </c>
+      <c r="D1291">
+        <v>61605.90883285326</v>
+      </c>
+      <c r="E1291">
+        <v>66713.73993419313</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:5">
+      <c r="A1292" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C1292">
+        <v>77482.15493833265</v>
+      </c>
+      <c r="D1292">
+        <v>66780.86201584458</v>
+      </c>
+      <c r="E1292">
+        <v>75090.80531517419</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:5">
+      <c r="A1293" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C1293">
+        <v>11005.9000285418</v>
+      </c>
+      <c r="D1293">
+        <v>11005.9000285418</v>
+      </c>
+      <c r="E1293">
+        <v>11005.9000285418</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:5">
+      <c r="A1294" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C1294">
+        <v>9523.965379589597</v>
+      </c>
+      <c r="D1294">
+        <v>10205.71512139941</v>
+      </c>
+      <c r="E1294">
+        <v>10545.61433275784</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:5">
+      <c r="A1295" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C1295">
+        <v>10385.80264549155</v>
+      </c>
+      <c r="D1295">
+        <v>11073.91641721479</v>
+      </c>
+      <c r="E1295">
+        <v>12008.98880284563</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:5">
+      <c r="A1296" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C1296">
+        <v>10905.09424122273</v>
+      </c>
+      <c r="D1296">
+        <v>11447.00656006646</v>
+      </c>
+      <c r="E1296">
+        <v>12879.34054979228</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:5">
+      <c r="A1297" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C1297">
+        <v>11378.32400581036</v>
+      </c>
+      <c r="D1297">
+        <v>11571.31050421311</v>
+      </c>
+      <c r="E1297">
+        <v>13224.60081796921</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:5">
+      <c r="A1298" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C1298">
+        <v>11624.73339465466</v>
+      </c>
+      <c r="D1298">
+        <v>12041.1596659437</v>
+      </c>
+      <c r="E1298">
+        <v>13926.91561872603</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:5">
+      <c r="A1299" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C1299">
+        <v>11978.05173749978</v>
+      </c>
+      <c r="D1299">
+        <v>12600.18490497903</v>
+      </c>
+      <c r="E1299">
+        <v>14758.59821235476</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:5">
+      <c r="A1300" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C1300">
+        <v>13139.91778230485</v>
+      </c>
+      <c r="D1300">
+        <v>13139.91778230485</v>
+      </c>
+      <c r="E1300">
+        <v>13139.91778230485</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:5">
+      <c r="A1301" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C1301">
+        <v>12457.70848155378</v>
+      </c>
+      <c r="D1301">
+        <v>11928.61444679763</v>
+      </c>
+      <c r="E1301">
+        <v>12206.94707937572</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:5">
+      <c r="A1302" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C1302">
+        <v>14546.81874764833</v>
+      </c>
+      <c r="D1302">
+        <v>12470.83818209801</v>
+      </c>
+      <c r="E1302">
+        <v>13350.21162382745</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:5">
+      <c r="A1303" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C1303">
+        <v>15819.44409242826</v>
+      </c>
+      <c r="D1303">
+        <v>13620.39105100902</v>
+      </c>
+      <c r="E1303">
+        <v>15482.48176644338</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:5">
+      <c r="A1304" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C1304">
+        <v>19664.38668490769</v>
+      </c>
+      <c r="D1304">
+        <v>14760.60849923956</v>
+      </c>
+      <c r="E1304">
+        <v>18116.49807799063</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:5">
+      <c r="A1305" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C1305">
+        <v>22446.20940651236</v>
+      </c>
+      <c r="D1305">
+        <v>16561.51823372484</v>
+      </c>
+      <c r="E1305">
+        <v>21648.61429970643</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:5">
+      <c r="A1306" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C1306">
+        <v>25034.4952705442</v>
+      </c>
+      <c r="D1306">
+        <v>17514.41076906074</v>
+      </c>
+      <c r="E1306">
+        <v>23925.8992150597</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:5">
+      <c r="A1307" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C1307">
+        <v>14072.51409335916</v>
+      </c>
+      <c r="D1307">
+        <v>14072.51409335916</v>
+      </c>
+      <c r="E1307">
+        <v>14072.51409335916</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:5">
+      <c r="A1308" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C1308">
+        <v>19822.07891208152</v>
+      </c>
+      <c r="D1308">
+        <v>17655.22456940649</v>
+      </c>
+      <c r="E1308">
+        <v>18061.738635409</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:5">
+      <c r="A1309" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C1309">
+        <v>25831.17935580029</v>
+      </c>
+      <c r="D1309">
+        <v>18546.08200712993</v>
+      </c>
+      <c r="E1309">
+        <v>19511.76193125389</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:5">
+      <c r="A1310" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C1310">
+        <v>21587.09337834156</v>
+      </c>
+      <c r="D1310">
+        <v>21803.70804184255</v>
+      </c>
+      <c r="E1310">
+        <v>23709.74437838442</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:5">
+      <c r="A1311" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C1311">
+        <v>32217.15863590058</v>
+      </c>
+      <c r="D1311">
+        <v>24708.50739817665</v>
+      </c>
+      <c r="E1311">
+        <v>28041.17417716569</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:5">
+      <c r="A1312" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C1312">
+        <v>36554.52308635177</v>
+      </c>
+      <c r="D1312">
+        <v>25358.15007357507</v>
+      </c>
+      <c r="E1312">
+        <v>31654.27433963</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:5">
+      <c r="A1313" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C1313">
+        <v>41312.20624911953</v>
+      </c>
+      <c r="D1313">
+        <v>30923.55117170508</v>
+      </c>
+      <c r="E1313">
+        <v>37389.71379711363</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:5">
+      <c r="A1314" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C1314">
+        <v>7634.444783553769</v>
+      </c>
+      <c r="D1314">
+        <v>7634.444783553769</v>
+      </c>
+      <c r="E1314">
+        <v>7634.444783553769</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:5">
+      <c r="A1315" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C1315">
+        <v>8126.974924402553</v>
+      </c>
+      <c r="D1315">
+        <v>7662.236036345987</v>
+      </c>
+      <c r="E1315">
+        <v>7808.224714470281</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:5">
+      <c r="A1316" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C1316">
+        <v>10141.77089178782</v>
+      </c>
+      <c r="D1316">
+        <v>8454.664614618621</v>
+      </c>
+      <c r="E1316">
+        <v>8858.227041185195</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:5">
+      <c r="A1317" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C1317">
+        <v>9535.225980109321</v>
+      </c>
+      <c r="D1317">
+        <v>9543.371241440904</v>
+      </c>
+      <c r="E1317">
+        <v>10438.22136588423</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:5">
+      <c r="A1318" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C1318">
+        <v>13010.47839454763</v>
+      </c>
+      <c r="D1318">
+        <v>11459.77314482087</v>
+      </c>
+      <c r="E1318">
+        <v>12876.20908343497</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:5">
+      <c r="A1319" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C1319">
+        <v>15157.11044664889</v>
+      </c>
+      <c r="D1319">
+        <v>13708.30147502561</v>
+      </c>
+      <c r="E1319">
+        <v>15753.249436093</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:5">
+      <c r="A1320" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C1320">
+        <v>16742.93638126513</v>
+      </c>
+      <c r="D1320">
+        <v>15300.78586415486</v>
+      </c>
+      <c r="E1320">
+        <v>17850.726521637</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:5">
+      <c r="A1321" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C1321">
+        <v>288.252582417582</v>
+      </c>
+      <c r="D1321">
+        <v>288.252582417582</v>
+      </c>
+      <c r="E1321">
+        <v>288.252582417582</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:5">
+      <c r="A1322" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C1322">
+        <v>231.533904549806</v>
+      </c>
+      <c r="D1322">
+        <v>225.2630434641712</v>
+      </c>
+      <c r="E1322">
+        <v>230.2894786632725</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:5">
+      <c r="A1323" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C1323">
+        <v>469.3197080520027</v>
+      </c>
+      <c r="D1323">
+        <v>430.5241589480513</v>
+      </c>
+      <c r="E1323">
+        <v>451.4272310557843</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:5">
+      <c r="A1324" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C1324">
+        <v>502.0714160945004</v>
+      </c>
+      <c r="D1324">
+        <v>336.7226485071267</v>
+      </c>
+      <c r="E1324">
+        <v>361.6658155645863</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:5">
+      <c r="A1325" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C1325">
+        <v>506.4142000521393</v>
+      </c>
+      <c r="D1325">
+        <v>339.7020228787159</v>
+      </c>
+      <c r="E1325">
+        <v>358.4726763149171</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:5">
+      <c r="A1326" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C1326">
+        <v>512.1848992965365</v>
+      </c>
+      <c r="D1326">
+        <v>497.5378374449176</v>
+      </c>
+      <c r="E1326">
+        <v>498.7912489961433</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:5">
+      <c r="A1327" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C1327">
+        <v>516.3773763035905</v>
+      </c>
+      <c r="D1327">
+        <v>514.2082368587867</v>
+      </c>
+      <c r="E1327">
+        <v>378.8147037196664</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:5">
+      <c r="A1328" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C1328">
+        <v>401.337472527473</v>
+      </c>
+      <c r="D1328">
+        <v>401.337472527473</v>
+      </c>
+      <c r="E1328">
+        <v>401.337472527473</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:5">
+      <c r="A1329" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C1329">
+        <v>1111.033672345886</v>
+      </c>
+      <c r="D1329">
+        <v>1178.874166123204</v>
+      </c>
+      <c r="E1329">
+        <v>1217.786965181029</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:5">
+      <c r="A1330" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C1330">
+        <v>1470.81798713668</v>
+      </c>
+      <c r="D1330">
+        <v>1540.822229474363</v>
+      </c>
+      <c r="E1330">
+        <v>1671.247346966848</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:5">
+      <c r="A1331" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C1331">
+        <v>1699.453298287339</v>
+      </c>
+      <c r="D1331">
+        <v>1738.903642471822</v>
+      </c>
+      <c r="E1331">
+        <v>1966.968919156711</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:5">
+      <c r="A1332" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C1332">
+        <v>1893.981861851556</v>
+      </c>
+      <c r="D1332">
+        <v>1842.926146802933</v>
+      </c>
+      <c r="E1332">
+        <v>2127.929240941273</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:5">
+      <c r="A1333" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C1333">
+        <v>1957.480778380459</v>
+      </c>
+      <c r="D1333">
+        <v>2011.685706659876</v>
+      </c>
+      <c r="E1333">
+        <v>2348.136333355503</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:5">
+      <c r="A1334" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C1334">
+        <v>2122.730386996842</v>
+      </c>
+      <c r="D1334">
+        <v>2212.999424687155</v>
+      </c>
+      <c r="E1334">
+        <v>2607.641825674588</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:5">
+      <c r="A1335" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C1335">
+        <v>892.037142857143</v>
+      </c>
+      <c r="D1335">
+        <v>892.037142857143</v>
+      </c>
+      <c r="E1335">
+        <v>892.037142857143</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:5">
+      <c r="A1336" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C1336">
+        <v>964.6369992314144</v>
+      </c>
+      <c r="D1336">
+        <v>896.016005121971</v>
+      </c>
+      <c r="E1336">
+        <v>972.280042835182</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:5">
+      <c r="A1337" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C1337">
+        <v>1158.010107457697</v>
+      </c>
+      <c r="D1337">
+        <v>968.8076698824086</v>
+      </c>
+      <c r="E1337">
+        <v>1127.861706603496</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:5">
+      <c r="A1338" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C1338">
+        <v>1302.088305921488</v>
+      </c>
+      <c r="D1338">
+        <v>737.9240062147584</v>
+      </c>
+      <c r="E1338">
+        <v>1237.80364541136</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:5">
+      <c r="A1339" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C1339">
+        <v>1445.840538760869</v>
+      </c>
+      <c r="D1339">
+        <v>1080.042768649748</v>
+      </c>
+      <c r="E1339">
+        <v>1331.982962530564</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:5">
+      <c r="A1340" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C1340">
+        <v>1582.743079093851</v>
+      </c>
+      <c r="D1340">
+        <v>1252.090289367128</v>
+      </c>
+      <c r="E1340">
+        <v>1533.115270905866</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:5">
+      <c r="A1341" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C1341">
+        <v>1726.743159656816</v>
+      </c>
+      <c r="D1341">
+        <v>1359.063442811528</v>
+      </c>
+      <c r="E1341">
+        <v>1683.666993922439</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:5">
+      <c r="A1342" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C1342">
+        <v>1428.809230769231</v>
+      </c>
+      <c r="D1342">
+        <v>1428.809230769231</v>
+      </c>
+      <c r="E1342">
+        <v>1428.809230769231</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:5">
+      <c r="A1343" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C1343">
+        <v>2102.6703977045</v>
+      </c>
+      <c r="D1343">
+        <v>1760.609975925202</v>
+      </c>
+      <c r="E1343">
+        <v>1809.839795870003</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:5">
+      <c r="A1344" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C1344">
+        <v>3788.727532802663</v>
+      </c>
+      <c r="D1344">
+        <v>2474.73560370786</v>
+      </c>
+      <c r="E1344">
+        <v>2698.822167215445</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:5">
+      <c r="A1345" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C1345">
+        <v>3074.631726362805</v>
+      </c>
+      <c r="D1345">
+        <v>3188.705548284085</v>
+      </c>
+      <c r="E1345">
+        <v>3717.023999342228</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:5">
+      <c r="A1346" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C1346">
+        <v>4828.428207378184</v>
+      </c>
+      <c r="D1346">
+        <v>3735.540119259231</v>
+      </c>
+      <c r="E1346">
+        <v>4410.237486364563</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:5">
+      <c r="A1347" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C1347">
+        <v>5826.228298598702</v>
+      </c>
+      <c r="D1347">
+        <v>4425.95237011739</v>
+      </c>
+      <c r="E1347">
+        <v>5257.803389152012</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:5">
+      <c r="A1348" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C1348">
+        <v>6639.879244918206</v>
+      </c>
+      <c r="D1348">
+        <v>5070.603200464752</v>
+      </c>
+      <c r="E1348">
+        <v>6200.85085634606</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:5">
+      <c r="A1349" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C1349">
+        <v>1576.96538461539</v>
+      </c>
+      <c r="D1349">
+        <v>1576.96538461539</v>
+      </c>
+      <c r="E1349">
+        <v>1576.96538461539</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:5">
+      <c r="A1350" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C1350">
+        <v>975.6795323529259</v>
+      </c>
+      <c r="D1350">
+        <v>919.820731401365</v>
+      </c>
+      <c r="E1350">
+        <v>960.8075519291705</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:5">
+      <c r="A1351" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C1351">
+        <v>1404.933704699554</v>
+      </c>
+      <c r="D1351">
+        <v>922.9296073851457</v>
+      </c>
+      <c r="E1351">
+        <v>1016.738753934479</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:5">
+      <c r="A1352" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C1352">
+        <v>1516.717976837524</v>
+      </c>
+      <c r="D1352">
+        <v>953.3933442698328</v>
+      </c>
+      <c r="E1352">
+        <v>1092.591282133534</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:5">
+      <c r="A1353" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C1353">
+        <v>1625.484574696203</v>
+      </c>
+      <c r="D1353">
+        <v>1323.432459445603</v>
+      </c>
+      <c r="E1353">
+        <v>1503.415552571207</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:5">
+      <c r="A1354" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C1354">
+        <v>1259.439580478408</v>
+      </c>
+      <c r="D1354">
+        <v>1135.987028361564</v>
+      </c>
+      <c r="E1354">
+        <v>1277.267386420701</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:5">
+      <c r="A1355" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1355">
+        <v>1620.014251913861</v>
+      </c>
+      <c r="D1355">
+        <v>1451.717545380984</v>
+      </c>
+      <c r="E1355">
+        <v>1607.173758411582</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:5">
+      <c r="A1356" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C1356">
+        <v>602.7807122350511</v>
+      </c>
+      <c r="D1356">
+        <v>602.7807122350511</v>
+      </c>
+      <c r="E1356">
+        <v>602.7807122350511</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:5">
+      <c r="A1357" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C1357">
+        <v>246.5930381871003</v>
+      </c>
+      <c r="D1357">
+        <v>231.107566072486</v>
+      </c>
+      <c r="E1357">
+        <v>229.5713212517889</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:5">
+      <c r="A1358" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C1358">
+        <v>690.6319568991595</v>
+      </c>
+      <c r="D1358">
+        <v>652.8539796601509</v>
+      </c>
+      <c r="E1358">
+        <v>633.4728725091418</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:5">
+      <c r="A1359" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C1359">
+        <v>755.2560772845957</v>
+      </c>
+      <c r="D1359">
+        <v>723.3221898298146</v>
+      </c>
+      <c r="E1359">
+        <v>702.9725136239692</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:5">
+      <c r="A1360" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C1360">
+        <v>816.9465070503459</v>
+      </c>
+      <c r="D1360">
+        <v>768.9978515973887</v>
+      </c>
+      <c r="E1360">
+        <v>755.302046763382</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:5">
+      <c r="A1361" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C1361">
+        <v>359.2916795578162</v>
+      </c>
+      <c r="D1361">
+        <v>341.5903470592399</v>
+      </c>
+      <c r="E1361">
+        <v>354.2144696397836</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:5">
+      <c r="A1362" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C1362">
+        <v>759.2398982393918</v>
+      </c>
+      <c r="D1362">
+        <v>775.7991383656574</v>
+      </c>
+      <c r="E1362">
+        <v>794.6521661413706</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:5">
+      <c r="A1363" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C1363">
+        <v>1818.09126373626</v>
+      </c>
+      <c r="D1363">
+        <v>1818.09126373626</v>
+      </c>
+      <c r="E1363">
+        <v>1818.09126373626</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:5">
+      <c r="A1364" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C1364">
+        <v>1260.729434434855</v>
+      </c>
+      <c r="D1364">
+        <v>1226.42113994944</v>
+      </c>
+      <c r="E1364">
+        <v>1253.809067873977</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:5">
+      <c r="A1365" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C1365">
+        <v>1619.612977474227</v>
+      </c>
+      <c r="D1365">
+        <v>1233.347357813677</v>
+      </c>
+      <c r="E1365">
+        <v>1300.326353687239</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:5">
+      <c r="A1366" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C1366">
+        <v>1673.249884476855</v>
+      </c>
+      <c r="D1366">
+        <v>1261.146512517397</v>
+      </c>
+      <c r="E1366">
+        <v>1365.010334414081</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:5">
+      <c r="A1367" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C1367">
+        <v>2382.436570762291</v>
+      </c>
+      <c r="D1367">
+        <v>1913.041041903049</v>
+      </c>
+      <c r="E1367">
+        <v>2206.583020548673</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:5">
+      <c r="A1368" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C1368">
+        <v>2699.107471842634</v>
+      </c>
+      <c r="D1368">
+        <v>2307.138845556388</v>
+      </c>
+      <c r="E1368">
+        <v>2625.646940425723</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:5">
+      <c r="A1369" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C1369">
+        <v>3148.55196406817</v>
+      </c>
+      <c r="D1369">
+        <v>2656.827739240464</v>
+      </c>
+      <c r="E1369">
+        <v>3037.793540262473</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:5">
+      <c r="A1370" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C1370">
+        <v>6431.713901098905</v>
+      </c>
+      <c r="D1370">
+        <v>6431.713901098905</v>
+      </c>
+      <c r="E1370">
+        <v>6431.713901098905</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:5">
+      <c r="A1371" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C1371">
+        <v>6086.52707113436</v>
+      </c>
+      <c r="D1371">
+        <v>5767.509912502785</v>
+      </c>
+      <c r="E1371">
+        <v>5966.035018703476</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:5">
+      <c r="A1372" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C1372">
+        <v>6789.767343617676</v>
+      </c>
+      <c r="D1372">
+        <v>3856.948419966771</v>
+      </c>
+      <c r="E1372">
+        <v>6309.113333309292</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:5">
+      <c r="A1373" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C1373">
+        <v>7399.033836992582</v>
+      </c>
+      <c r="D1373">
+        <v>6056.87922103234</v>
+      </c>
+      <c r="E1373">
+        <v>6751.842565378105</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:5">
+      <c r="A1374" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C1374">
+        <v>8265.166007895998</v>
+      </c>
+      <c r="D1374">
+        <v>6283.481745491705</v>
+      </c>
+      <c r="E1374">
+        <v>7238.642071175259</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:5">
+      <c r="A1375" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C1375">
+        <v>8778.321408289441</v>
+      </c>
+      <c r="D1375">
+        <v>7003.602109128409</v>
+      </c>
+      <c r="E1375">
+        <v>8196.656975315738</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:5">
+      <c r="A1376" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C1376">
+        <v>9857.388142244337</v>
+      </c>
+      <c r="D1376">
+        <v>7383.895405492633</v>
+      </c>
+      <c r="E1376">
+        <v>9117.43646116608</v>
       </c>
     </row>
   </sheetData>
